--- a/outputs/ML_Results/mode_MNLR_new/Nimes.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ39841737" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42875355" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ45803774" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ48339053" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ50841369" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53429988" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ56246137" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59491211" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ02611130" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ17489375" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19571976" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ21770572" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ24366406" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26636102" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ29036562" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ31018476" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ33052174" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35084086" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.53121251753216</v>
+        <v>-32.18699825672376</v>
       </c>
       <c r="C2" t="n">
-        <v>2.92694017644509</v>
+        <v>2.801846634204485</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.51611424910705</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9949948578692304</v>
-      </c>
+        <v>-16.76272356619147</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.07718815626746442</v>
+        <v>0.01527149303964628</v>
       </c>
       <c r="G2" t="n">
-        <v>0.997615697348552</v>
+        <v>0.9913565912966795</v>
       </c>
     </row>
     <row r="3">
@@ -511,22 +509,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02951129938560903</v>
+        <v>-0.01796748785088504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1748411250097159</v>
+        <v>0.4247141383946778</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5571253476521</v>
+        <v>-0.4759183599398259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9580826206309332</v>
+        <v>0.9722669421810731</v>
       </c>
       <c r="F3" t="n">
-        <v>0.26892321052075</v>
+        <v>0.006856275470182654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01840064013250923</v>
+        <v>0.04228186596267974</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-14.82853929820768</v>
+        <v>-15.84318323626552</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7469826582936262</v>
+        <v>-0.6349548090787055</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.316947308385095</v>
+        <v>-2.295302127997632</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9931420382011672</v>
+        <v>0.9943602094234441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07594693841495252</v>
+        <v>0.1155278300833685</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00536254841876997</v>
+        <v>0.01394798687976389</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +559,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6590067783795311</v>
+        <v>0.3126749818058543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3704730331432712</v>
+        <v>0.4843702465500732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1422425561658726</v>
+        <v>0.1165298214659568</v>
       </c>
       <c r="E5" t="n">
-        <v>0.308924627180525</v>
+        <v>0.6166022780662748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0417884368761853</v>
+        <v>0.00741536311693595</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5666738491681751</v>
+        <v>0.6365321989451636</v>
       </c>
     </row>
     <row r="6">
@@ -586,22 +584,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.776774427626571</v>
+        <v>1.186085346020957</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5589317740439428</v>
+        <v>-0.2767910572480101</v>
       </c>
       <c r="D6" t="n">
-        <v>-16.33515526030846</v>
+        <v>-5.79611448821485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03711532841542525</v>
+        <v>0.1930193380064718</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3365921575282824</v>
+        <v>0.623491707951597</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9922825790338742</v>
+        <v>0.4809768880741611</v>
       </c>
     </row>
     <row r="7">
@@ -611,22 +609,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.103095848284794</v>
+        <v>0.799247710057074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1759762961929631</v>
+        <v>0.2781904339636663</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6636263399091608</v>
+        <v>-0.6606892405435663</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04376214618262522</v>
+        <v>0.1325689371412257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.37222097936498</v>
+        <v>0.1538871275144266</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04386838549726464</v>
+        <v>0.04814928207822242</v>
       </c>
     </row>
     <row r="8">
@@ -636,22 +634,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.88528959246525</v>
+        <v>1.584105404671547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6857172333865948</v>
+        <v>0.8782318480224937</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1862584912949357</v>
+        <v>0.001200676736750112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02177040386734574</v>
+        <v>0.0402349174086885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04064616353159518</v>
+        <v>0.006919924700618335</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6559416609803723</v>
+        <v>0.9976723709006162</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +659,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1620985452565774</v>
+        <v>0.1843976898493635</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2738273143931549</v>
+        <v>-0.1357228690546324</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02176362709816308</v>
+        <v>0.1149903279141642</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7380272639704037</v>
+        <v>0.6774698770017702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03641974292579669</v>
+        <v>0.2908120753746224</v>
       </c>
       <c r="G9" t="n">
-        <v>0.907447734565494</v>
+        <v>0.5273278166767658</v>
       </c>
     </row>
     <row r="10">
@@ -686,22 +684,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.314976776830246</v>
+        <v>2.563108750546975</v>
       </c>
       <c r="C10" t="n">
-        <v>1.336108793408679</v>
+        <v>1.213651604073887</v>
       </c>
       <c r="D10" t="n">
-        <v>1.526628466847377</v>
+        <v>1.359797111161398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03882248349764443</v>
+        <v>0.01907393404581352</v>
       </c>
       <c r="F10" t="n">
-        <v>4.655280068389904e-10</v>
+        <v>5.099597016171053e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>4.628675510121625e-05</v>
+        <v>0.0002652139414759293</v>
       </c>
     </row>
     <row r="11">
@@ -711,22 +709,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.300208380509107</v>
+        <v>0.6065933614635151</v>
       </c>
       <c r="C11" t="n">
-        <v>1.492990990908232</v>
+        <v>1.3022270926452</v>
       </c>
       <c r="D11" t="n">
-        <v>1.98399729796</v>
+        <v>1.812187527364127</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4143581438658146</v>
+        <v>0.6827431002766633</v>
       </c>
       <c r="F11" t="n">
-        <v>3.679883504734085e-05</v>
+        <v>0.0001271997479365047</v>
       </c>
       <c r="G11" t="n">
-        <v>7.215239340660456e-05</v>
+        <v>0.0001881326059354438</v>
       </c>
     </row>
     <row r="12">
@@ -736,22 +734,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.441870833767195</v>
+        <v>2.481656113087585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7284339359277954</v>
+        <v>0.6804356097731357</v>
       </c>
       <c r="D12" t="n">
-        <v>1.552273416506254</v>
+        <v>1.596633743934441</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03672556119060098</v>
+        <v>0.03022260975676998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001093740007349643</v>
+        <v>0.001883969623581493</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001024700134941974</v>
+        <v>5.489507753323922e-05</v>
       </c>
     </row>
     <row r="13">
@@ -761,22 +759,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.075463175060905</v>
+        <v>3.256291527026573</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8103330438170724</v>
+        <v>0.5089421570934225</v>
       </c>
       <c r="D13" t="n">
-        <v>1.4527125163846</v>
+        <v>1.608216725147888</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00689789220545938</v>
+        <v>0.0037845504428197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001037354892301254</v>
+        <v>0.03927981374953801</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006079410290154427</v>
+        <v>0.0001844525346442895</v>
       </c>
     </row>
     <row r="14">
@@ -786,22 +784,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6622360267053551</v>
+        <v>0.8286261159159617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2634972527833456</v>
+        <v>0.1751934918449409</v>
       </c>
       <c r="D14" t="n">
-        <v>1.735591618139032</v>
+        <v>1.683259617035892</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6595992521916934</v>
+        <v>0.5727496119346823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3321980883596519</v>
+        <v>0.525465993146115</v>
       </c>
       <c r="G14" t="n">
-        <v>1.528600787800778e-05</v>
+        <v>2.867866820127052e-05</v>
       </c>
     </row>
     <row r="15">
@@ -811,22 +809,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.068824454226998</v>
+        <v>0.01507307911562067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3014977150771836</v>
+        <v>0.4599045376475955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8498209193969387</v>
+        <v>1.120144211740739</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09535417928676139</v>
+        <v>0.9835088605452195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2382444798977386</v>
+        <v>0.07292607775983957</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01876349709660593</v>
+        <v>0.001881063518490138</v>
       </c>
     </row>
     <row r="16">
@@ -836,22 +834,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.00620172554345</v>
+        <v>-10.53601181959908</v>
       </c>
       <c r="C16" t="n">
-        <v>1.331381386240882</v>
+        <v>1.566913170109185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.788994130571799</v>
+        <v>1.197384078564719</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999444713559155</v>
+        <v>0.9719799358398548</v>
       </c>
       <c r="F16" t="n">
-        <v>1.059431434632774e-06</v>
+        <v>2.425972807364155e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08644578796288045</v>
+        <v>0.009243158525828405</v>
       </c>
     </row>
     <row r="17">
@@ -861,22 +859,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.89090202362915</v>
+        <v>-16.63815782110514</v>
       </c>
       <c r="C17" t="n">
-        <v>1.087848645862439</v>
+        <v>1.250274212728626</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.307196422912718</v>
+        <v>-0.1986684701510078</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9953456123952003</v>
+        <v>0.9985685365422371</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007488731568253922</v>
+        <v>0.00259880668617085</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1474194547649921</v>
+        <v>0.8047326712338461</v>
       </c>
     </row>
     <row r="18">
@@ -886,22 +884,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.451356187396098</v>
+        <v>1.88498621513698</v>
       </c>
       <c r="C18" t="n">
-        <v>1.34047931587209</v>
+        <v>1.32783188388052</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5200176924428069</v>
+        <v>1.123920510836475</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0803329136302344</v>
+        <v>0.02342150737380059</v>
       </c>
       <c r="F18" t="n">
-        <v>3.349266363947488e-06</v>
+        <v>2.371244492153363e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2470922238076256</v>
+        <v>0.0145149690889902</v>
       </c>
     </row>
     <row r="19">
@@ -911,22 +909,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-52.81070836576182</v>
+        <v>-16.24094602114047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2718428864442727</v>
+        <v>0.3065595078807186</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9223448022145447</v>
+        <v>1.252438697767016</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999999273331</v>
+        <v>0.99730802750925</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5578902603444358</v>
+        <v>0.5101768517269956</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1410823194545451</v>
+        <v>0.04228267430865217</v>
       </c>
     </row>
     <row r="20">
@@ -936,22 +934,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.34557225005617</v>
+        <v>2.520645747674584</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4330300045740721</v>
+        <v>0.7270240876398834</v>
       </c>
       <c r="D20" t="n">
-        <v>2.109395197337686</v>
+        <v>2.359177438695041</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1886016580640103</v>
+        <v>0.1981381672856332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4081265016491281</v>
+        <v>0.1593589783033703</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001003220109278034</v>
+        <v>0.0002580997638110979</v>
       </c>
     </row>
     <row r="21">
@@ -961,22 +959,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.905676331179456</v>
+        <v>2.615269080868742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0353867058358208</v>
+        <v>0.4597266384540366</v>
       </c>
       <c r="D21" t="n">
-        <v>1.036554669972937</v>
+        <v>1.588956089522114</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007959594425169246</v>
+        <v>0.01193068615902548</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9500041624968695</v>
+        <v>0.4319588638599928</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1258685860805874</v>
+        <v>0.02005396097892121</v>
       </c>
     </row>
     <row r="22">
@@ -986,22 +984,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3089812191077961</v>
+        <v>0.3564500187676768</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6098005483895247</v>
+        <v>0.5128797519122906</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6234632816506595</v>
+        <v>0.8976249498609578</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7462051596071964</v>
+        <v>0.6651966486540672</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01173449236564027</v>
+        <v>0.03329123835006809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1036264475287618</v>
+        <v>0.02500873888557948</v>
       </c>
     </row>
     <row r="23">
@@ -1011,22 +1009,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.81289695092229</v>
+        <v>30.42863306708443</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5302431239232267</v>
+        <v>0.346970221893709</v>
       </c>
       <c r="D23" t="n">
-        <v>17.02152008015968</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9959311406408695</v>
-      </c>
+        <v>14.58011001193376</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.5595099188472964</v>
+        <v>0.6584340186386299</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9975427359319744</v>
+        <v>0.9924819804174942</v>
       </c>
     </row>
     <row r="24">
@@ -1036,22 +1032,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.41272841731096</v>
+        <v>30.53852887229578</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1152549277609097</v>
+        <v>-0.2919861091664358</v>
       </c>
       <c r="D24" t="n">
-        <v>14.49314331899884</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9960689748480451</v>
-      </c>
+        <v>12.04511641039865</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.9028540112013815</v>
+        <v>0.723186539538569</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9979077370555409</v>
+        <v>0.9937890835967387</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1055,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-10.70679947697916</v>
+        <v>13.26619082409459</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5249185707159999</v>
+        <v>0.8830572783596106</v>
       </c>
       <c r="D25" t="n">
-        <v>16.71238723006014</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9999559052354071</v>
-      </c>
+        <v>14.60856641835856</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.5721981369637863</v>
+        <v>0.2756927503397176</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9975873628982326</v>
+        <v>0.9924673079285599</v>
       </c>
     </row>
     <row r="26">
@@ -1086,22 +1078,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13.38592477173835</v>
+        <v>32.46467229577272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.328665558051314</v>
+        <v>0.2744830337749896</v>
       </c>
       <c r="D26" t="n">
-        <v>16.95080323385193</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9953893284775177</v>
-      </c>
+        <v>14.43160438975632</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.7040041250157598</v>
+        <v>0.7059256525854063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9975529447350906</v>
+        <v>0.9925585527476432</v>
       </c>
     </row>
     <row r="27">
@@ -1111,22 +1101,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.48608418291726</v>
+        <v>32.82383882828834</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2403956627452394</v>
+        <v>0.2387507375861488</v>
       </c>
       <c r="D27" t="n">
-        <v>16.88590331017413</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.995354829824568</v>
-      </c>
+        <v>14.33967887510754</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.7829437643810175</v>
+        <v>0.7454381728362668</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9975623138031828</v>
+        <v>0.9926059515019542</v>
       </c>
     </row>
     <row r="28">
@@ -1136,22 +1124,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.391303615030744</v>
+        <v>-1.122513049218787</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1271482408378937</v>
+        <v>0.004694428915526881</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4302723540382031</v>
+        <v>0.2799824717361145</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004025998466064887</v>
+        <v>0.007958067423677979</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3176380083479851</v>
+        <v>0.9702113182877222</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01473697604997356</v>
+        <v>0.1042214116615324</v>
       </c>
     </row>
     <row r="29">
@@ -1161,22 +1149,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01463096042895682</v>
+        <v>-0.004589860874269595</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.003004304239868029</v>
+        <v>-0.006403789578630336</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003058628788405625</v>
+        <v>-0.005573308619834308</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4460357710975941</v>
+        <v>0.8028435587451932</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6519757328376911</v>
+        <v>0.3350697717183054</v>
       </c>
       <c r="G29" t="n">
-        <v>0.734678736056675</v>
+        <v>0.5326985942599884</v>
       </c>
     </row>
     <row r="30">
@@ -1186,22 +1174,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0004328782719853478</v>
+        <v>-0.0005141727844250584</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001458403798839451</v>
+        <v>-0.001540794765449683</v>
       </c>
       <c r="D30" t="n">
-        <v>8.485588154646428e-05</v>
+        <v>9.282190444750051e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001775663192020644</v>
+        <v>0.0001069625496211142</v>
       </c>
       <c r="F30" t="n">
-        <v>5.973306147595982e-97</v>
+        <v>1.205688623693825e-101</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006980814762177411</v>
+        <v>0.002219994714282303</v>
       </c>
     </row>
     <row r="31">
@@ -1211,22 +1199,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.398459347686146</v>
+        <v>-1.828737213934057</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.43257622982527</v>
+        <v>-2.37415318185742</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.508134900354269</v>
+        <v>-3.443511464750195</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06583321748454761</v>
+        <v>0.003933423306261763</v>
       </c>
       <c r="F31" t="n">
-        <v>1.294545164399503e-22</v>
+        <v>1.765800372549004e-21</v>
       </c>
       <c r="G31" t="n">
-        <v>2.249969808322481e-38</v>
+        <v>3.095221953797597e-37</v>
       </c>
     </row>
     <row r="32">
@@ -1236,272 +1224,247 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3027103735645927</v>
+        <v>0.4106093513834754</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1151260322835823</v>
+        <v>0.0682382934677941</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1134097858768044</v>
+        <v>0.09461533298956074</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06179044645711783</v>
+        <v>0.005211504516494422</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02215429137295611</v>
+        <v>0.1751268758157679</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09559879457804661</v>
+        <v>0.1615019931312673</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.045773386775838e-05</v>
+        <v>5.711241218582736e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.459306932661525e-05</v>
+        <v>-1.127033847592161e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001147933695087181</v>
+        <v>0.0001206271903659707</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6063557763843598</v>
+        <v>0.5508654257566505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4093651849603583</v>
+        <v>0.7261154172117613</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005105069919570588</v>
+        <v>0.003153492411217511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1796721586677248</v>
+        <v>0.2046595460062056</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1772257274792731</v>
+        <v>0.07780425983710583</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02026392050219643</v>
+        <v>-0.232993379173123</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5698211755771593</v>
+        <v>0.5022614938099289</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09559092686690543</v>
+        <v>0.4465363652796976</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8801533966465377</v>
+        <v>0.07000649178694378</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1206215559408406</v>
+        <v>0.4892730181003913</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.3923740076387935</v>
+        <v>-0.3144032786699452</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05889237526786305</v>
+        <v>0.3534958114789744</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8314799045834378</v>
+        <v>0.3248894347544412</v>
       </c>
       <c r="F35" t="n">
-        <v>0.008946565389693484</v>
+        <v>0.01699688799013438</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7668260158936744</v>
+        <v>0.02709560241462565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-9.985505195108788e-08</v>
+        <v>7.420170196020636e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>2.180392858007973e-07</v>
+        <v>1.870080203180828e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>5.446152763642086e-08</v>
+        <v>2.950136267001272e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5323247809919152</v>
+        <v>0.5140403038162855</v>
       </c>
       <c r="F36" t="n">
-        <v>1.91814027328515e-06</v>
+        <v>2.01308336586814e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4323757407602282</v>
+        <v>0.6363282766253853</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.0016964435887592</v>
+        <v>-0.05219062132145216</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01144375402188833</v>
+        <v>-0.002430919036682634</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01796929411844213</v>
+        <v>-0.009685332581460877</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9318764459483525</v>
+        <v>0.06333967407549558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06096984416342442</v>
+        <v>0.6829123433791611</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04757640743744268</v>
+        <v>0.1338440344815126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.03270758522412657</v>
+        <v>6.694333284222949</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.005028749368642875</v>
+        <v>-7.893758844849734</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02702397760404775</v>
+        <v>-0.6440702470307569</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3511372253174805</v>
+        <v>0.5349441246435538</v>
       </c>
       <c r="F38" t="n">
-        <v>0.544726191565543</v>
+        <v>0.1155643302946951</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01004438232569541</v>
+        <v>0.9301780860063251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.432703930867106</v>
+        <v>-2.652335845143412</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.095730664680595</v>
+        <v>-0.6508032501421176</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.669451841362288</v>
+        <v>0.7131931745113735</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5830002500656495</v>
+        <v>0.2033467087455224</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3047844002909255</v>
+        <v>0.3304253198194305</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4608265046982668</v>
+        <v>0.4403278154102218</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-4.653182963264999</v>
+        <v>-2.957328987185233</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2031501684400338</v>
+        <v>-1.115942027729782</v>
       </c>
       <c r="D40" t="n">
-        <v>1.620862796027074</v>
+        <v>1.009557923615746</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08228863523600224</v>
+        <v>0.1671394199141852</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7960398654256086</v>
+        <v>0.1551991207352341</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1295604210578546</v>
+        <v>0.3691462918238071</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.397146378383022</v>
+        <v>0.0004155042978093221</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.026086758671727</v>
+        <v>0.0004126854946017092</v>
       </c>
       <c r="D41" t="n">
-        <v>1.602150177166963</v>
+        <v>-0.0003603665218926119</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3181379164383874</v>
+        <v>0.5725998342077205</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2421519857319587</v>
+        <v>0.09756506931821608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2123886306654039</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.001949504119563677</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0005617117598065511</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.0005202337928833743</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.07603898454868205</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.06650316083108435</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.2493973418347639</v>
+        <v>0.3215005985545304</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1966,7 +1929,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1979,7 +1942,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1992,7 +1955,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2005,7 +1968,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2018,7 +1981,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2031,7 +1994,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2044,7 +2007,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2057,7 +2020,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2070,7 +2033,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2079,19 +2042,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2104,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,22 +2106,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.60516534774738</v>
+        <v>-160.7874081630943</v>
       </c>
       <c r="C2" t="n">
-        <v>2.66077746097026</v>
+        <v>2.171011813834783</v>
       </c>
       <c r="D2" t="n">
-        <v>-12.49935525531652</v>
+        <v>-17.93464664395471</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8108007438064367</v>
+        <v>0.9999962372582333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8544873608467379</v>
+        <v>0.06266824148187876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9993260854580455</v>
+        <v>0.9950528309467677</v>
       </c>
     </row>
     <row r="3">
@@ -2181,22 +2131,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09390323235163575</v>
+        <v>-0.07535236559507433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160249015026227</v>
+        <v>0.2456350023002496</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6441377065564793</v>
+        <v>-0.3607571211899127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8566954753609163</v>
+        <v>0.8834879564657967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3278638696572934</v>
+        <v>0.1209163288101254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006976208299894822</v>
+        <v>0.1096012983794816</v>
       </c>
     </row>
     <row r="4">
@@ -2206,22 +2156,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-61.61118104573934</v>
+        <v>-16.48669597481412</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6900121231309766</v>
+        <v>-0.671871235617422</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.630995459208384</v>
+        <v>-2.053449495797786</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999875093954</v>
+        <v>0.9962606597474276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08674276732495279</v>
+        <v>0.1018013512621996</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003935565341353687</v>
+        <v>0.02571867222405794</v>
       </c>
     </row>
     <row r="5">
@@ -2231,22 +2181,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3831299341954925</v>
+        <v>0.3057352021557352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2419867297151514</v>
+        <v>0.3493567596111439</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07121791881663249</v>
+        <v>0.118046793768922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5505262672378508</v>
+        <v>0.6230147725942494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1896869752695155</v>
+        <v>0.04886184890208726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7754294900265222</v>
+        <v>0.6222840056859471</v>
       </c>
     </row>
     <row r="6">
@@ -2256,22 +2206,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.293100919819818</v>
+        <v>1.28055007302357</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3060313028591868</v>
+        <v>-0.5457629248050465</v>
       </c>
       <c r="D6" t="n">
-        <v>-33.54843209169461</v>
+        <v>-18.90951470749912</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1545818830351509</v>
+        <v>0.1235206351202562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5872563189281463</v>
+        <v>0.3233670322150455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999972750383042</v>
+        <v>0.997356374770341</v>
       </c>
     </row>
     <row r="7">
@@ -2281,22 +2231,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9487815755576507</v>
+        <v>0.8236372866599337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1788775168732735</v>
+        <v>0.1306393648933514</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8066907585059764</v>
+        <v>-0.7458969261180262</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09423074456408334</v>
+        <v>0.12125132737115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3854636892724185</v>
+        <v>0.50693193313228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01656145219698421</v>
+        <v>0.02026506399550292</v>
       </c>
     </row>
     <row r="8">
@@ -2306,22 +2256,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.499967666818766</v>
+        <v>0.794427769354426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616621588381416</v>
+        <v>0.6425797945399521</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04398971754165258</v>
+        <v>-0.1427585971612074</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05913814487744174</v>
+        <v>0.4011139815070475</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07240000751073536</v>
+        <v>0.05994049149717015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9178389212097051</v>
+        <v>0.7309626542221636</v>
       </c>
     </row>
     <row r="9">
@@ -2331,22 +2281,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0634075221285051</v>
+        <v>0.3506511964461505</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2114517592414177</v>
+        <v>-0.2153849135308916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1567785863609848</v>
+        <v>-0.04135187614427884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8864838669694255</v>
+        <v>0.4214359668284696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1162115749067993</v>
+        <v>0.09527737867588809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4087220119914137</v>
+        <v>0.8161937181422112</v>
       </c>
     </row>
     <row r="10">
@@ -2356,22 +2306,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.413680757757028</v>
+        <v>2.221875704278321</v>
       </c>
       <c r="C10" t="n">
-        <v>1.317086842229527</v>
+        <v>1.479291608308783</v>
       </c>
       <c r="D10" t="n">
-        <v>1.681492995891088</v>
+        <v>1.476042270112716</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02578202614101659</v>
+        <v>0.04338874109716382</v>
       </c>
       <c r="F10" t="n">
-        <v>1.52136557496905e-09</v>
+        <v>2.265049968454428e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>3.151316842007206e-06</v>
+        <v>1.711420730720407e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2381,22 +2331,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.558483518899374</v>
+        <v>0.5665010929127507</v>
       </c>
       <c r="C11" t="n">
-        <v>1.444396111196999</v>
+        <v>1.304966109039343</v>
       </c>
       <c r="D11" t="n">
-        <v>1.579302229712148</v>
+        <v>1.533796358153096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3285333503422664</v>
+        <v>0.6951136498426165</v>
       </c>
       <c r="F11" t="n">
-        <v>4.346824654164222e-05</v>
+        <v>9.079795123979955e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005905954575230858</v>
+        <v>0.0006122643207065135</v>
       </c>
     </row>
     <row r="12">
@@ -2406,22 +2356,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.573090224187816</v>
+        <v>2.30496660303267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7527296079974732</v>
+        <v>0.8479294939845816</v>
       </c>
       <c r="D12" t="n">
-        <v>1.568696139069016</v>
+        <v>1.416853198559569</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02066003884327828</v>
+        <v>0.04189740874302764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009459137612509645</v>
+        <v>0.0001607545126116793</v>
       </c>
       <c r="G12" t="n">
-        <v>5.683174604764395e-05</v>
+        <v>0.0001488642661022089</v>
       </c>
     </row>
     <row r="13">
@@ -2431,22 +2381,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.069975132427206</v>
+        <v>3.394334832994081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.608180540643116</v>
+        <v>0.7742398869325161</v>
       </c>
       <c r="D13" t="n">
-        <v>1.42529404162253</v>
+        <v>1.303500191939705</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005627600478529319</v>
+        <v>0.002755789598448318</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01795325775718086</v>
+        <v>0.001739284253706788</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005236823940096475</v>
+        <v>0.001200524440868496</v>
       </c>
     </row>
     <row r="14">
@@ -2456,22 +2406,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8072985894718733</v>
+        <v>0.5222638090715329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009714084578947572</v>
+        <v>0.3719626503539128</v>
       </c>
       <c r="D14" t="n">
-        <v>1.616916515868141</v>
+        <v>1.39911836919927</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5774992366430377</v>
+        <v>0.7204381746529611</v>
       </c>
       <c r="F14" t="n">
-        <v>0.972548959250629</v>
+        <v>0.172385287368704</v>
       </c>
       <c r="G14" t="n">
-        <v>3.416996094391926e-05</v>
+        <v>0.0002394363521172476</v>
       </c>
     </row>
     <row r="15">
@@ -2481,22 +2431,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5799884667253744</v>
+        <v>-0.2648650708631146</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3408898498848079</v>
+        <v>0.2926076314882043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.930698476060808</v>
+        <v>0.7885541978646509</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3875166770738572</v>
+        <v>0.7316170202169597</v>
       </c>
       <c r="F15" t="n">
-        <v>0.207535497084168</v>
+        <v>0.2540112077251682</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009295609016482964</v>
+        <v>0.02946528581029931</v>
       </c>
     </row>
     <row r="16">
@@ -2506,22 +2456,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.45867186276623</v>
+        <v>-7.082819834760523</v>
       </c>
       <c r="C16" t="n">
-        <v>1.621901039474817</v>
+        <v>1.576902926858555</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9664042465571517</v>
+        <v>0.952214709853221</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8892302925575092</v>
+        <v>0.9201249328453049</v>
       </c>
       <c r="F16" t="n">
-        <v>3.191810206727242e-09</v>
+        <v>4.426123812932793e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02826762378782473</v>
+        <v>0.02742283780482796</v>
       </c>
     </row>
     <row r="17">
@@ -2531,22 +2481,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-40.9001513533391</v>
+        <v>-18.55016941923896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8812648486773149</v>
+        <v>1.074438856746684</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9210845267190767</v>
+        <v>-1.11213496272181</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995679219144733</v>
+        <v>0.9993475463217354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02988291836936143</v>
+        <v>0.01031279029147658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2879296521606113</v>
+        <v>0.1981166255812211</v>
       </c>
     </row>
     <row r="18">
@@ -2556,22 +2506,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.897878221580658</v>
+        <v>2.138635098442492</v>
       </c>
       <c r="C18" t="n">
-        <v>1.317159450561729</v>
+        <v>1.448072474354213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6703881273492814</v>
+        <v>0.7616397750566347</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02550902361398551</v>
+        <v>0.009541314184550018</v>
       </c>
       <c r="F18" t="n">
-        <v>1.042428260262363e-05</v>
+        <v>2.865210171804159e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1510333683701532</v>
+        <v>0.07992156772770384</v>
       </c>
     </row>
     <row r="19">
@@ -2581,22 +2531,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-32.48938599071273</v>
+        <v>-20.27096888381547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3146010623196905</v>
+        <v>0.3934116373269259</v>
       </c>
       <c r="D19" t="n">
-        <v>1.34046247733628</v>
+        <v>1.138156825111053</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999987466293235</v>
+        <v>0.9995473387356552</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5251931246906208</v>
+        <v>0.4117598812203986</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02489816320116343</v>
+        <v>0.0564550387670237</v>
       </c>
     </row>
     <row r="20">
@@ -2606,22 +2556,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-45.72931263985399</v>
+        <v>2.659538991418834</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5406328488144857</v>
+        <v>0.6690658382187584</v>
       </c>
       <c r="D20" t="n">
-        <v>2.534961172879073</v>
+        <v>2.138481460091024</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998103395340424</v>
+        <v>0.04697417481104302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3626613061979516</v>
+        <v>0.1851006320433469</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001867962595603132</v>
+        <v>0.0004282864703877901</v>
       </c>
     </row>
     <row r="21">
@@ -2631,22 +2581,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.469058382165811</v>
+        <v>2.17100214025573</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4576115133671229</v>
+        <v>0.2616969787538094</v>
       </c>
       <c r="D21" t="n">
-        <v>1.804835695559197</v>
+        <v>1.31836628062812</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0237920494276087</v>
+        <v>0.03843230054583237</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4373946727320128</v>
+        <v>0.634220430032547</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005530685127513038</v>
+        <v>0.03276664660542318</v>
       </c>
     </row>
     <row r="22">
@@ -2656,22 +2606,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4624279391403424</v>
+        <v>0.4551428809303421</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6801699421065012</v>
+        <v>0.6956526222964493</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9020742951404704</v>
+        <v>0.8725478883774872</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5840889376696698</v>
+        <v>0.5903023998964649</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006895396846062876</v>
+        <v>0.00424156401527733</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01883465795492206</v>
+        <v>0.01879002657855074</v>
       </c>
     </row>
     <row r="23">
@@ -2681,22 +2631,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-9.95267116561733</v>
+        <v>154.4272823716292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6345973803614512</v>
+        <v>0.8219808371122126</v>
       </c>
       <c r="D23" t="n">
-        <v>12.42676223440804</v>
+        <v>16.09325963173015</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4311987917327975</v>
+        <v>0.9999963860978373</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9649489535281742</v>
+        <v>0.3062220715962168</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9993299993735972</v>
+        <v>0.99556076108195</v>
       </c>
     </row>
     <row r="24">
@@ -2706,22 +2656,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.98089982327429</v>
+        <v>154.241665648058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1580500920877461</v>
+        <v>0.207138179272457</v>
       </c>
       <c r="D24" t="n">
-        <v>9.895797745655962</v>
+        <v>13.75161381062873</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999420147704388</v>
+        <v>0.999996390441606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.991268684624617</v>
+        <v>0.8046301151776272</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994664586923622</v>
+        <v>0.9962066862015871</v>
       </c>
     </row>
     <row r="25">
@@ -2731,22 +2681,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-34.01022479425261</v>
+        <v>-10.14484151865899</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7736075528469698</v>
+        <v>1.253426003403304</v>
       </c>
       <c r="D25" t="n">
-        <v>12.4624948247251</v>
+        <v>16.2284833500547</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8084895347441012</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9572738324966996</v>
+        <v>0.1302299632372427</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9993280728177331</v>
+        <v>0.995523460770452</v>
       </c>
     </row>
     <row r="26">
@@ -2756,22 +2706,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-31.7778702958488</v>
+        <v>156.6345470855987</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4084619715456107</v>
+        <v>0.7242181002230149</v>
       </c>
       <c r="D26" t="n">
-        <v>12.50833132336241</v>
+        <v>15.90930520117326</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8207732311231024</v>
+        <v>0.9999963344433696</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9774263642179233</v>
+        <v>0.3341545473666916</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9993256014998066</v>
+        <v>0.9956115033786026</v>
       </c>
     </row>
     <row r="27">
@@ -2781,22 +2731,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-31.14535829866894</v>
+        <v>156.7829849290371</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4844396639576428</v>
+        <v>0.6610541573839829</v>
       </c>
       <c r="D27" t="n">
-        <v>12.61305058030936</v>
+        <v>15.84005804138787</v>
       </c>
       <c r="E27" t="n">
-        <v>0.824280805061961</v>
+        <v>0.9999963309697897</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9732296623725191</v>
+        <v>0.3827315373229069</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9993199554635591</v>
+        <v>0.995630604654778</v>
       </c>
     </row>
     <row r="28">
@@ -2806,22 +2756,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.178855529687791</v>
+        <v>-1.534495458573479</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1066222776328926</v>
+        <v>0.1423610566108341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5187539939596062</v>
+        <v>0.357728206243593</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008147142703908055</v>
+        <v>0.000987547925504944</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4125670046087034</v>
+        <v>0.2591776827978919</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003133540757736615</v>
+        <v>0.03456338659938597</v>
       </c>
     </row>
     <row r="29">
@@ -2831,22 +2781,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.007908191784885934</v>
+        <v>-0.009710441268723162</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.003113927956835896</v>
+        <v>-0.008552989369315152</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.003377867349304285</v>
+        <v>-0.004645070170863664</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6637367494747025</v>
+        <v>0.5856068071261914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6498379468283956</v>
+        <v>0.2007471142372198</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7068617261118153</v>
+        <v>0.595258705453324</v>
       </c>
     </row>
     <row r="30">
@@ -2856,22 +2806,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.000447561925197893</v>
+        <v>-0.0005089822314378132</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00146836555292578</v>
+        <v>-0.001566492090130287</v>
       </c>
       <c r="D30" t="n">
-        <v>7.808763039712007e-05</v>
+        <v>6.906041794258994e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006517978182853242</v>
+        <v>0.0001216571970770794</v>
       </c>
       <c r="F30" t="n">
-        <v>5.451477818959902e-93</v>
+        <v>3.519630292433307e-102</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009784422285746755</v>
+        <v>0.02336623865630047</v>
       </c>
     </row>
     <row r="31">
@@ -2881,22 +2831,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.195081457901012</v>
+        <v>-2.741330279755577</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.398220982158529</v>
+        <v>-2.408203918081663</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.297605737571784</v>
+        <v>-3.201478096105798</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002684131609814307</v>
+        <v>2.108587123983801e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>7.971434939110256e-21</v>
+        <v>2.920253264274649e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>3.938482006026631e-33</v>
+        <v>2.142552523247626e-34</v>
       </c>
     </row>
     <row r="32">
@@ -2906,272 +2856,247 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.39832288359905</v>
+        <v>0.3038516814631428</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09100863273557035</v>
+        <v>0.0922509335239334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1553062310077474</v>
+        <v>0.1250759838727242</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008154759792386199</v>
+        <v>0.04159666451738964</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07303907485753768</v>
+        <v>0.06430174026027254</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02022879120301131</v>
+        <v>0.05276445192592662</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.929433216276818e-05</v>
+        <v>-1.453007906155397e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.135096941340824e-06</v>
+        <v>-9.371793915252618e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>6.143224328262116e-05</v>
+        <v>6.658269752611268e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8373240769719082</v>
+        <v>0.8774083433480372</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8408299018804233</v>
+        <v>0.7705260652913819</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1325519138411315</v>
+        <v>0.09363760361098161</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4486123603866791</v>
+        <v>0.3416140492425411</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1641351813013258</v>
+        <v>0.04317790032976302</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.168470029803192</v>
+        <v>-0.2129814461353354</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1612650372703438</v>
+        <v>0.2676904717775501</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1276604309682642</v>
+        <v>0.6722284874098656</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1904833931585034</v>
+        <v>0.08932656001263539</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1003511138622293</v>
+        <v>0.2500081083596117</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.3657615888210211</v>
+        <v>-0.3730821638559912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1199335702468257</v>
+        <v>0.2635723931680274</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8439084191368815</v>
+        <v>0.5458660949592169</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01502458291743355</v>
+        <v>0.004679772207488312</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5544447148324474</v>
+        <v>0.09503773506136168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.41675420107204e-08</v>
+        <v>8.452451038452377e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.752619598422622e-07</v>
+        <v>1.746694755920157e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>7.367633566843258e-08</v>
+        <v>7.678004949267197e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6012676271305026</v>
+        <v>0.4376510127526496</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001444736089204787</v>
+        <v>9.537015533272343e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2828467565610505</v>
+        <v>0.2017046779291598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01511518554313086</v>
+        <v>-0.005891321534895086</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.006091352260073344</v>
+        <v>-0.000133108011126511</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01341094886875478</v>
+        <v>-0.008515370889592524</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4444443839172054</v>
+        <v>0.7248678205540164</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3354984030014659</v>
+        <v>0.9824508426654335</v>
       </c>
       <c r="G37" t="n">
-        <v>0.134817747719353</v>
+        <v>0.2001104668321267</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.05405549846033694</v>
+        <v>14.26106575097186</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.003305350082973192</v>
+        <v>-4.539101587784316</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02162341111285308</v>
+        <v>-7.318090888320731</v>
       </c>
       <c r="E38" t="n">
-        <v>0.116513291165674</v>
+        <v>0.2341515215804045</v>
       </c>
       <c r="F38" t="n">
-        <v>0.706876689064231</v>
+        <v>0.3702716477773585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02752685065841245</v>
+        <v>0.3367181819351779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.597183229890035</v>
+        <v>1.953884128175598</v>
       </c>
       <c r="C39" t="n">
-        <v>-8.483577285968025</v>
+        <v>-0.5374240851311254</v>
       </c>
       <c r="D39" t="n">
-        <v>-3.295751773930806</v>
+        <v>0.2498807440080948</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7041820390823427</v>
+        <v>0.3623924930376287</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1064219499589546</v>
+        <v>0.4141238325213284</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6516291166860926</v>
+        <v>0.7757080007602075</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.6372944468686307</v>
+        <v>-0.7578845716139322</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.8195821334013643</v>
+        <v>-1.159908286125558</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5760058223321189</v>
+        <v>0.6295417086306073</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7977122636216402</v>
+        <v>0.740970099371037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3252290701975354</v>
+        <v>0.1409844576513675</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5636671665850772</v>
+        <v>0.558047044145108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.86879395009607</v>
+        <v>0.0005153335440691408</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.8489777193085302</v>
+        <v>0.0003882194097331943</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2485278264518369</v>
+        <v>2.802922515799038e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.458949120030875</v>
+        <v>0.4436362534415519</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3582870534689352</v>
+        <v>0.1208719304890774</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8418456191670598</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0003778225598884193</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0006940441853851362</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.000125400444294621</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.6561708571270607</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.02641662078497969</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.7742850932748759</v>
+        <v>0.9937016702427423</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3636,7 +3561,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3649,7 +3574,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -3662,7 +3587,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3675,7 +3600,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3688,7 +3613,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3701,7 +3626,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3714,7 +3639,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3727,7 +3652,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3740,7 +3665,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3749,19 +3674,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3774,7 +3686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3826,22 +3738,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.63644006283191</v>
+        <v>-14.26128259098846</v>
       </c>
       <c r="C2" t="n">
-        <v>2.032201819152298</v>
+        <v>2.008307428257681</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.08067965023501</v>
+        <v>-20.61915554594107</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997298707089504</v>
+        <v>0.9876987949870277</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1964949425394408</v>
+        <v>0.06752115598800019</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9538898423138867</v>
+        <v>0.9984753034218374</v>
       </c>
     </row>
     <row r="3">
@@ -3851,22 +3763,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05009366058192757</v>
+        <v>-0.0255728416697838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.255898896989343</v>
+        <v>0.2260055130550749</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4646627773399133</v>
+        <v>-0.6423500409163495</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9210497941846107</v>
+        <v>0.9608071609009209</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1147783682074479</v>
+        <v>0.1496894766892123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04484986253655289</v>
+        <v>0.005343690517176458</v>
       </c>
     </row>
     <row r="4">
@@ -3876,22 +3788,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-18.2876115074801</v>
+        <v>-17.00665723929968</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6921585113865366</v>
+        <v>-0.7495980613329618</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.647130209034859</v>
+        <v>-2.421929417273049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9982461482401801</v>
+        <v>0.996740473173503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0981747578060744</v>
+        <v>0.07657412736736213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004647511215578404</v>
+        <v>0.009832084076018517</v>
       </c>
     </row>
     <row r="5">
@@ -3901,22 +3813,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1600383053309831</v>
+        <v>0.1728180522606711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3237434944705118</v>
+        <v>0.3812566700707016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008518746965215543</v>
+        <v>-0.01686911238829984</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7988766137237018</v>
+        <v>0.8051016331044816</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07761350528571952</v>
+        <v>0.03259088937941788</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9972072792598926</v>
+        <v>0.9438825614884446</v>
       </c>
     </row>
     <row r="6">
@@ -3926,22 +3838,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.154536729956149</v>
+        <v>1.111243091280226</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7484347289560961</v>
+        <v>-0.5551723766175941</v>
       </c>
       <c r="D6" t="n">
-        <v>-24.33981966534084</v>
+        <v>-17.92985270433722</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1685225292139092</v>
+        <v>0.1916845677310572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2011116452107783</v>
+        <v>0.316528940088151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9997662572092058</v>
+        <v>0.9953627681677497</v>
       </c>
     </row>
     <row r="7">
@@ -3951,22 +3863,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7605984520118436</v>
+        <v>0.9429128705863802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1953097235755712</v>
+        <v>0.1398655771097236</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9239094925693897</v>
+        <v>-0.6141183179168606</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1492014735331795</v>
+        <v>0.07311231493125024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.33421256504132</v>
+        <v>0.4764793759674402</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006194643784451842</v>
+        <v>0.05608770318100867</v>
       </c>
     </row>
     <row r="8">
@@ -3976,22 +3888,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.584557497913599</v>
+        <v>1.682267423331963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8139023299781468</v>
+        <v>0.8410813366090982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05796097901625074</v>
+        <v>-0.07317793167598061</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04404373133061067</v>
+        <v>0.03767403139429579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01724291314010943</v>
+        <v>0.01236948064912681</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8876765445336364</v>
+        <v>0.859781739838012</v>
       </c>
     </row>
     <row r="9">
@@ -4001,22 +3913,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2131611343172697</v>
+        <v>0.3939107267891611</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3129313152856475</v>
+        <v>-0.1902776948746925</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05564152657184201</v>
+        <v>-0.01351519551498769</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6291431436203033</v>
+        <v>0.3939487485230012</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01818040587753321</v>
+        <v>0.1375071958166268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7615894855935035</v>
+        <v>0.9396806464052099</v>
       </c>
     </row>
     <row r="10">
@@ -4026,22 +3938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.336241820819984</v>
+        <v>2.182426171191123</v>
       </c>
       <c r="C10" t="n">
-        <v>1.311164210507905</v>
+        <v>1.213221135955394</v>
       </c>
       <c r="D10" t="n">
-        <v>1.881900328979587</v>
+        <v>1.452919229222926</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03473735475026021</v>
+        <v>0.04671876513287842</v>
       </c>
       <c r="F10" t="n">
-        <v>1.402918509273618e-09</v>
+        <v>5.934390102716705e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>7.876351425142249e-07</v>
+        <v>5.816506501248317e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4051,22 +3963,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8286239091768942</v>
+        <v>1.226332314434795</v>
       </c>
       <c r="C11" t="n">
-        <v>1.306725957276899</v>
+        <v>1.17309516776271</v>
       </c>
       <c r="D11" t="n">
-        <v>1.761108581110066</v>
+        <v>1.67488356129634</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5832785036913994</v>
+        <v>0.41134049755159</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002802046340020675</v>
+        <v>0.0004793051586216256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002402247814684534</v>
+        <v>0.0002417436193335081</v>
       </c>
     </row>
     <row r="12">
@@ -4076,22 +3988,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.756162900239008</v>
+        <v>2.498079224687717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7541323783213361</v>
+        <v>0.7604967064026787</v>
       </c>
       <c r="D12" t="n">
-        <v>1.790932013342874</v>
+        <v>1.608678510256047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01558394157198076</v>
+        <v>0.02689960770289153</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009849737766728006</v>
+        <v>0.0005626927198817802</v>
       </c>
       <c r="G12" t="n">
-        <v>1.097404792110469e-05</v>
+        <v>3.040456419362669e-05</v>
       </c>
     </row>
     <row r="13">
@@ -4101,22 +4013,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.319007491131313</v>
+        <v>3.039966450851409</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7728016003883573</v>
+        <v>0.4776494740510529</v>
       </c>
       <c r="D13" t="n">
-        <v>1.647502079023832</v>
+        <v>1.805491492356572</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002587956248258725</v>
+        <v>0.006880035243923467</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002173363744773451</v>
+        <v>0.05247733841968282</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000134353618407722</v>
+        <v>2.537903645557385e-05</v>
       </c>
     </row>
     <row r="14">
@@ -4126,22 +4038,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8676371636970881</v>
+        <v>0.655173451653083</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4060494869071894</v>
+        <v>0.1414103038774713</v>
       </c>
       <c r="D14" t="n">
-        <v>1.867455488761282</v>
+        <v>1.82639155187849</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5557013493359466</v>
+        <v>0.6565455124582392</v>
       </c>
       <c r="F14" t="n">
-        <v>0.151958140085351</v>
+        <v>0.6132926163681371</v>
       </c>
       <c r="G14" t="n">
-        <v>8.75469948390098e-06</v>
+        <v>2.889294428598303e-06</v>
       </c>
     </row>
     <row r="15">
@@ -4151,22 +4063,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7266960144844863</v>
+        <v>0.948996258390292</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4210646702140802</v>
+        <v>0.3900155825322737</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8219568540187656</v>
+        <v>1.034468749338524</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2202532770625528</v>
+        <v>0.1277174020606507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107043265574719</v>
+        <v>0.1301165808594521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02400798014212386</v>
+        <v>0.004747796292520512</v>
       </c>
     </row>
     <row r="16">
@@ -4176,22 +4088,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-28.39875264858286</v>
+        <v>-16.29791134174792</v>
       </c>
       <c r="C16" t="n">
-        <v>1.695899389737065</v>
+        <v>1.456280887307502</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7495857071249018</v>
+        <v>1.420695454778143</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999913753121116</v>
+        <v>0.9981236338205335</v>
       </c>
       <c r="F16" t="n">
-        <v>5.181430499176236e-10</v>
+        <v>3.847211366859375e-08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1033655523539237</v>
+        <v>0.001878172478874926</v>
       </c>
     </row>
     <row r="17">
@@ -4201,22 +4113,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.02431332843324</v>
+        <v>-63.47649711564174</v>
       </c>
       <c r="C17" t="n">
-        <v>1.176515062261762</v>
+        <v>1.00194986775463</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7208047682164199</v>
+        <v>-0.2901489670117068</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9977498949521941</v>
+        <v>0.9999999999996052</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006069600769792194</v>
+        <v>0.01203957254479956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3493530605645943</v>
+        <v>0.7069533858966133</v>
       </c>
     </row>
     <row r="18">
@@ -4226,22 +4138,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.680941773023976</v>
+        <v>2.602954867783245</v>
       </c>
       <c r="C18" t="n">
-        <v>1.631081250157776</v>
+        <v>1.28956596603218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8198358961845318</v>
+        <v>1.01518687193304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03764440468773299</v>
+        <v>0.001942619716238811</v>
       </c>
       <c r="F18" t="n">
-        <v>2.572805009296142e-08</v>
+        <v>5.23542345932193e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06458939044132096</v>
+        <v>0.02778012510106374</v>
       </c>
     </row>
     <row r="19">
@@ -4251,22 +4163,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-18.60088818176512</v>
+        <v>-32.5815841675407</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6168182086651504</v>
+        <v>0.5220739123134371</v>
       </c>
       <c r="D19" t="n">
-        <v>1.350620751022544</v>
+        <v>1.856966592249698</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9992128448331906</v>
+        <v>0.9999984978744273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2095059749388266</v>
+        <v>0.2752918742343206</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02467729560748462</v>
+        <v>0.002028986459147775</v>
       </c>
     </row>
     <row r="20">
@@ -4276,22 +4188,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.024683068181494</v>
+        <v>2.54476813047513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8213354849934874</v>
+        <v>0.7763726529587279</v>
       </c>
       <c r="D20" t="n">
-        <v>2.438208810871426</v>
+        <v>2.889321271600841</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2046938086515555</v>
+        <v>0.05486952191012901</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1209020411183338</v>
+        <v>0.116523166286916</v>
       </c>
       <c r="G20" t="n">
-        <v>7.379892419826871e-05</v>
+        <v>2.198704138696313e-06</v>
       </c>
     </row>
     <row r="21">
@@ -4301,22 +4213,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.668368538696122</v>
+        <v>2.086421445304484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7355866471598174</v>
+        <v>0.236871123487075</v>
       </c>
       <c r="D21" t="n">
-        <v>1.552059815002271</v>
+        <v>1.755180163535649</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01088426451693402</v>
+        <v>0.05161408369747141</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2132329492125348</v>
+        <v>0.6702206353934446</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01465596220990387</v>
+        <v>0.005816524290158928</v>
       </c>
     </row>
     <row r="22">
@@ -4326,22 +4238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5054853119687988</v>
+        <v>0.5424301656214771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7196146100709599</v>
+        <v>0.5212555807892135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6965014385021061</v>
+        <v>1.303649173261766</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5338920044124481</v>
+        <v>0.5108038059123006</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003804079748013157</v>
+        <v>0.0318431872367059</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06818420580854161</v>
+        <v>0.001088889541935179</v>
       </c>
     </row>
     <row r="23">
@@ -4351,22 +4263,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.4534043275974</v>
+        <v>8.950168384150507</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8173402331370598</v>
+        <v>0.5962828214121888</v>
       </c>
       <c r="D23" t="n">
-        <v>10.14516216329277</v>
+        <v>18.5702165522448</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997325237531643</v>
+        <v>0.9922797423819175</v>
       </c>
       <c r="F23" t="n">
-        <v>0.264123406577217</v>
+        <v>0.40509036341822</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9535928760057616</v>
+        <v>0.9986268133544945</v>
       </c>
     </row>
     <row r="24">
@@ -4376,22 +4288,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.57074007559653</v>
+        <v>7.851011396098674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2328090814467365</v>
+        <v>-0.02851197808139967</v>
       </c>
       <c r="D24" t="n">
-        <v>7.753809711304301</v>
+        <v>15.88270920519571</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997308230087855</v>
+        <v>0.993227833390362</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7644946740512965</v>
+        <v>0.9699462536105861</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9645234056313482</v>
+        <v>0.9988255426642978</v>
       </c>
     </row>
     <row r="25">
@@ -4401,22 +4313,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.7844335671312982</v>
+        <v>-6.647032029876613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9121380818269741</v>
+        <v>1.096481882582806</v>
       </c>
       <c r="D25" t="n">
-        <v>10.01579367867272</v>
+        <v>18.44303741774653</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999901721223085</v>
+        <v>0.9994525436722679</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2256110917908936</v>
+        <v>0.1518508022227193</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9541840902681</v>
+        <v>0.9986362176896049</v>
       </c>
     </row>
     <row r="26">
@@ -4426,22 +4338,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.91116923964137</v>
+        <v>11.40387110309279</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7044993202941644</v>
+        <v>0.4472489911696227</v>
       </c>
       <c r="D26" t="n">
-        <v>10.02257921051765</v>
+        <v>18.41928644466524</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997113939136191</v>
+        <v>0.9901633078082688</v>
       </c>
       <c r="F26" t="n">
-        <v>0.293342609464417</v>
+        <v>0.5005191683106771</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9541529090065076</v>
+        <v>0.9986379739672292</v>
       </c>
     </row>
     <row r="27">
@@ -4451,22 +4363,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.38888747720494</v>
+        <v>11.60424699506137</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7408530941378643</v>
+        <v>0.580303199765413</v>
       </c>
       <c r="D27" t="n">
-        <v>9.973624149183751</v>
+        <v>18.50175303793696</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9997044695395167</v>
+        <v>0.9899904779008288</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2752936916343007</v>
+        <v>0.3875548748719362</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9543766254235408</v>
+        <v>0.9986318759278673</v>
       </c>
     </row>
     <row r="28">
@@ -4476,22 +4388,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.349428268319049</v>
+        <v>-1.465724672006995</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1838499125286605</v>
+        <v>0.1211630338658389</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4262317219453499</v>
+        <v>0.4565937971348755</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00233275505056861</v>
+        <v>0.001701425982382001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1560750464103794</v>
+        <v>0.3328605907227373</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01259141172956995</v>
+        <v>0.007679082758061563</v>
       </c>
     </row>
     <row r="29">
@@ -4501,22 +4413,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.002266198114909395</v>
+        <v>-0.01935106380886287</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.007779311721652494</v>
+        <v>-0.006797821127928697</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002135057157231951</v>
+        <v>-0.0004257383492913682</v>
       </c>
       <c r="E29" t="n">
-        <v>0.895754555961265</v>
+        <v>0.2860591962313186</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2530637807350606</v>
+        <v>0.3079095867208304</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8099614313222188</v>
+        <v>0.9608245168282141</v>
       </c>
     </row>
     <row r="30">
@@ -4526,22 +4438,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0004648664278452529</v>
+        <v>-0.0004785015196936819</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001589763209967711</v>
+        <v>-0.001523722126346913</v>
       </c>
       <c r="D30" t="n">
-        <v>7.874673789511744e-05</v>
+        <v>9.083930654946302e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003847182675329071</v>
+        <v>0.0003055832357166822</v>
       </c>
       <c r="F30" t="n">
-        <v>2.53171221083217e-99</v>
+        <v>3.214390372589338e-101</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009380446380583423</v>
+        <v>0.002872150406219563</v>
       </c>
     </row>
     <row r="31">
@@ -4551,22 +4463,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.440792813405531</v>
+        <v>-2.347154480875064</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.440021220704683</v>
+        <v>-2.341829693952227</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.308433510555485</v>
+        <v>-3.200077652932735</v>
       </c>
       <c r="E31" t="n">
-        <v>1.295719291468552e-05</v>
+        <v>2.087555427648963e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>1.384422682889776e-21</v>
+        <v>1.68519656134831e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.377970134067543e-34</v>
+        <v>1.534467185131977e-34</v>
       </c>
     </row>
     <row r="32">
@@ -4576,272 +4488,247 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4089522887928163</v>
+        <v>0.3507406537236187</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1150728839815392</v>
+        <v>0.07421542933501632</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2004369666335906</v>
+        <v>0.1367007764813817</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004635032826008367</v>
+        <v>0.01978484383458008</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0253551864880332</v>
+        <v>0.1429619116563513</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002386932036490187</v>
+        <v>0.03846773830670023</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.158087354112358e-05</v>
+        <v>-2.278387506764903e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.231393742335226e-05</v>
+        <v>2.84732790902523e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>7.747057036721533e-05</v>
+        <v>0.0001165320965320761</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7975289436512923</v>
+        <v>0.8075824506271542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6931343179928965</v>
+        <v>0.3713633353614393</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05042143747775296</v>
+        <v>0.00379233705699641</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2233810093603312</v>
+        <v>0.1893361057362792</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1192180291300443</v>
+        <v>0.2269569683591365</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.06791249341432096</v>
+        <v>-0.2255813937484965</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4783257587372004</v>
+        <v>0.5553098635780029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2676124162997503</v>
+        <v>0.02615609672973628</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6009064842428653</v>
+        <v>0.07053764812495462</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04180971701318251</v>
+        <v>0.1063228091873353</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.4118890684488468</v>
+        <v>-0.1959804909969743</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04413022579690423</v>
+        <v>0.3128599486243152</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9346775585424085</v>
+        <v>0.7955005393098327</v>
       </c>
       <c r="F35" t="n">
-        <v>0.006638592696134569</v>
+        <v>0.1302444066692277</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8208010296922443</v>
+        <v>0.04745032758337522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.880698333008533e-08</v>
+        <v>1.471746279246201e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>2.100517311888216e-07</v>
+        <v>1.41577636931754e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>1.31123706503334e-07</v>
+        <v>1.211195322061145e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5670998146876689</v>
+        <v>0.1606786053789215</v>
       </c>
       <c r="F36" t="n">
-        <v>1.20941052510529e-05</v>
+        <v>0.001001664627206953</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04856793673115787</v>
+        <v>0.8427060211196089</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.009657042407824912</v>
+        <v>-0.007725348618524301</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.005838822838821467</v>
+        <v>-0.005179078398512105</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01436934044787449</v>
+        <v>-0.01485928414900245</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5954126180220234</v>
+        <v>0.6286528327705458</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3485113718924103</v>
+        <v>0.3801819642153064</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09201533403137914</v>
+        <v>0.03198847087287404</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.03967556650631099</v>
+        <v>7.447738876958349</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001698765191994995</v>
+        <v>-6.903740398504698</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02229227107293191</v>
+        <v>-3.158207900666529</v>
       </c>
       <c r="E38" t="n">
-        <v>0.218157028772809</v>
+        <v>0.5402027669571674</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8417087246227345</v>
+        <v>0.1759447900561939</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01972982920029674</v>
+        <v>0.6643537647485371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.81785420072783</v>
+        <v>0.5039027969708051</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.428776840209057</v>
+        <v>-0.3468077744592953</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.187140195306617</v>
+        <v>0.1660484502691886</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4264382140895662</v>
+        <v>0.8061784253690442</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3095006459105637</v>
+        <v>0.5903137217418439</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3414207001080211</v>
+        <v>0.851448875837587</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.461591272775281</v>
+        <v>-1.975651165144372</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6724845756507539</v>
+        <v>-0.1042465341884785</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3097752512958321</v>
+        <v>1.04391807899895</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2708855288766836</v>
+        <v>0.3882465125200764</v>
       </c>
       <c r="F40" t="n">
-        <v>0.40527961641195</v>
+        <v>0.8925952142093081</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7527805416560364</v>
+        <v>0.3354105686825011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.872694927187655</v>
+        <v>0.0002703273463397237</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.290538316975134</v>
+        <v>0.000272329937520728</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3532538155819317</v>
+        <v>-0.0003807528704347319</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2098921175814423</v>
+        <v>0.6819574971555316</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1557985966155647</v>
+        <v>0.272811848518812</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7682872924903508</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0008226536110277538</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0006731163163601656</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.0002710766372764534</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.3211261057713052</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.03570617541204656</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.5304274220793801</v>
+        <v>0.2878405743324671</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5306,7 +5193,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -5319,7 +5206,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -5332,7 +5219,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -5345,7 +5232,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -5358,7 +5245,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -5371,7 +5258,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -5384,7 +5271,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -5397,7 +5284,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -5410,7 +5297,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -5419,19 +5306,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5444,7 +5318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5496,22 +5370,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.66749615092721</v>
+        <v>-16.70419314394104</v>
       </c>
       <c r="C2" t="n">
-        <v>2.684756181596837</v>
+        <v>2.19191831535022</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.78558495036197</v>
+        <v>-20.51638689163804</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9952337183799375</v>
+        <v>0.9934974331981689</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08158166189706596</v>
+        <v>0.0496074537907679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9935736551167307</v>
+        <v>0.9987227371667863</v>
       </c>
     </row>
     <row r="3">
@@ -5521,22 +5395,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06169263212944385</v>
+        <v>-0.08468845718499358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2211300267370183</v>
+        <v>0.2749922905458169</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4992119592604465</v>
+        <v>-0.5198147224617153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9087338959064649</v>
+        <v>0.869772967250645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1720101629415938</v>
+        <v>0.08706843562553933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03000370891072038</v>
+        <v>0.0221223337574671</v>
       </c>
     </row>
     <row r="4">
@@ -5546,22 +5420,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-21.09915758038213</v>
+        <v>-108.3475961919772</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7645325740885099</v>
+        <v>-0.6385687069047661</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.051769505143735</v>
+        <v>-2.130290520475971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995463652303884</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07061980145647237</v>
+        <v>0.1106179419019532</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01155852136158781</v>
+        <v>0.01946324975507471</v>
       </c>
     </row>
     <row r="5">
@@ -5571,22 +5445,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.171616850612085</v>
+        <v>0.2161083884482263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3347245106222965</v>
+        <v>0.4557657354541966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03451868965847905</v>
+        <v>0.0921066571338393</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8096143323981565</v>
+        <v>0.7290162812550434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06250744535644535</v>
+        <v>0.01213680121561064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8863452124361454</v>
+        <v>0.7031771772176352</v>
       </c>
     </row>
     <row r="6">
@@ -5596,22 +5470,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.421696402022628</v>
+        <v>0.4610238054619735</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4357501610559021</v>
+        <v>-0.2057706168883237</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.81262896445577</v>
+        <v>-17.75814714305795</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1057462586113319</v>
+        <v>0.6505254591286893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4489450591472898</v>
+        <v>0.7235434860722108</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9893032470327972</v>
+        <v>0.9955068290072181</v>
       </c>
     </row>
     <row r="7">
@@ -5621,22 +5495,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.55662460531948</v>
+        <v>0.5734304523432369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2116214471202162</v>
+        <v>0.2571288774457178</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6647994330043369</v>
+        <v>-0.8212284715416169</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3219153349719012</v>
+        <v>0.2900799768749226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2868544426624891</v>
+        <v>0.1912107418310948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03933157286495646</v>
+        <v>0.01128504866775826</v>
       </c>
     </row>
     <row r="8">
@@ -5646,22 +5520,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.906088547866737</v>
+        <v>1.552082998955554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.794204813049879</v>
+        <v>1.059343262377456</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.00810497408901443</v>
+        <v>-0.2056961765352151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01834998617202404</v>
+        <v>0.04951793397377489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01790113779606534</v>
+        <v>0.00263527270871025</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9843343814856444</v>
+        <v>0.636530596100545</v>
       </c>
     </row>
     <row r="9">
@@ -5671,22 +5545,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1885947608821916</v>
+        <v>-0.004555017974517102</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2486317717202068</v>
+        <v>-0.2081610656615445</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03435046107468945</v>
+        <v>-0.04303286519065178</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7043594200159543</v>
+        <v>0.9915895754428586</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05796390821185893</v>
+        <v>0.115177515690884</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8501755810515137</v>
+        <v>0.8114912043648975</v>
       </c>
     </row>
     <row r="10">
@@ -5696,22 +5570,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.025681917916756</v>
+        <v>2.367700965571034</v>
       </c>
       <c r="C10" t="n">
-        <v>1.314450166110589</v>
+        <v>1.375412994503754</v>
       </c>
       <c r="D10" t="n">
-        <v>1.479893791165224</v>
+        <v>1.659419869502053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0655650802896844</v>
+        <v>0.0328937663581798</v>
       </c>
       <c r="F10" t="n">
-        <v>1.079433306452425e-09</v>
+        <v>7.238774698845881e-11</v>
       </c>
       <c r="G10" t="n">
-        <v>3.74193712490774e-05</v>
+        <v>4.396430242742417e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5721,22 +5595,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.54190168570203</v>
+        <v>0.6057851321466143</v>
       </c>
       <c r="C11" t="n">
-        <v>1.518692487301573</v>
+        <v>1.214333469873927</v>
       </c>
       <c r="D11" t="n">
-        <v>1.755753351660555</v>
+        <v>1.726766729406927</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9916115107507584</v>
+        <v>0.6736723087213283</v>
       </c>
       <c r="F11" t="n">
-        <v>1.690955856352316e-05</v>
+        <v>0.0002753526484845815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001689372675554791</v>
+        <v>0.0001976465287511643</v>
       </c>
     </row>
     <row r="12">
@@ -5746,22 +5620,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.88470728609251</v>
+        <v>2.6987464694101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7736653494990364</v>
+        <v>0.8145006037339426</v>
       </c>
       <c r="D12" t="n">
-        <v>1.621427434935837</v>
+        <v>1.65196611314962</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1068632483079072</v>
+        <v>0.01729450797950687</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005556596912382605</v>
+        <v>0.0002867548799192633</v>
       </c>
       <c r="G12" t="n">
-        <v>1.940483556636543e-05</v>
+        <v>2.031374177202691e-05</v>
       </c>
     </row>
     <row r="13">
@@ -5771,22 +5645,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.678748504728017</v>
+        <v>3.35955118729176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7962159205068611</v>
+        <v>0.5269264045465466</v>
       </c>
       <c r="D13" t="n">
-        <v>1.778372178026322</v>
+        <v>1.394741089698322</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001828574210677991</v>
+        <v>0.002792156758072304</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001349954629266738</v>
+        <v>0.03530718241764806</v>
       </c>
       <c r="G13" t="n">
-        <v>2.816506740778813e-05</v>
+        <v>0.0008047909512761625</v>
       </c>
     </row>
     <row r="14">
@@ -5796,22 +5670,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5427353414334514</v>
+        <v>-49.11097176349301</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2205449074163528</v>
+        <v>0.2506396156653788</v>
       </c>
       <c r="D14" t="n">
-        <v>1.659757555479971</v>
+        <v>1.608043460732843</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7111069364066001</v>
+        <v>0.9999999994643978</v>
       </c>
       <c r="F14" t="n">
-        <v>0.419230411410594</v>
+        <v>0.3723186124533189</v>
       </c>
       <c r="G14" t="n">
-        <v>2.526658781271706e-05</v>
+        <v>4.247160362013386e-05</v>
       </c>
     </row>
     <row r="15">
@@ -5821,22 +5695,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.25219030155734</v>
+        <v>1.174210385300316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3338702215042458</v>
+        <v>0.2270578658408953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9728715040391217</v>
+        <v>1.017692294303799</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05422832769604441</v>
+        <v>0.05212423466416812</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1940630443885546</v>
+        <v>0.3871728694597952</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007933411981499827</v>
+        <v>0.004481843403829612</v>
       </c>
     </row>
     <row r="16">
@@ -5846,22 +5720,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.731822776932204</v>
+        <v>-5.135669975512219</v>
       </c>
       <c r="C16" t="n">
-        <v>1.673892019022601</v>
+        <v>1.656815797364595</v>
       </c>
       <c r="D16" t="n">
-        <v>1.383358151547215</v>
+        <v>0.9941488349690484</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9590797161374413</v>
+        <v>0.8493277301221133</v>
       </c>
       <c r="F16" t="n">
-        <v>6.242774023107063e-10</v>
+        <v>7.47668894050023e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002749261526980347</v>
+        <v>0.02488395887427429</v>
       </c>
     </row>
     <row r="17">
@@ -5871,22 +5745,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5422751606726993</v>
+        <v>-26.28005847455166</v>
       </c>
       <c r="C17" t="n">
-        <v>1.07142980529676</v>
+        <v>1.164274162284238</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4438287157396338</v>
+        <v>-0.4573262960414401</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9028019724665107</v>
+        <v>0.9999803548995111</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01029796638801867</v>
+        <v>0.009012543226552889</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5876423597226796</v>
+        <v>0.5618015384412988</v>
       </c>
     </row>
     <row r="18">
@@ -5896,22 +5770,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.650674490663122</v>
+        <v>1.450742244361952</v>
       </c>
       <c r="C18" t="n">
-        <v>1.52335206391422</v>
+        <v>1.245864460404653</v>
       </c>
       <c r="D18" t="n">
-        <v>1.070791346255051</v>
+        <v>0.7503028934754939</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00623811665953345</v>
+        <v>0.08065893915572248</v>
       </c>
       <c r="F18" t="n">
-        <v>1.423475128850979e-07</v>
+        <v>9.803795034035021e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01942139781923848</v>
+        <v>0.08009657365813717</v>
       </c>
     </row>
     <row r="19">
@@ -5921,22 +5795,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-15.3028647980188</v>
+        <v>-18.76403379001534</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6906688601316628</v>
+        <v>0.5967682359641957</v>
       </c>
       <c r="D19" t="n">
-        <v>1.711472551557292</v>
+        <v>1.486433663977965</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9980779577240791</v>
+        <v>0.9992829005000515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1632702293630638</v>
+        <v>0.2025592430444472</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007278432380921376</v>
+        <v>0.01068135492549149</v>
       </c>
     </row>
     <row r="20">
@@ -5946,22 +5820,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.918589289967105</v>
+        <v>3.157087900612494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6175212375745865</v>
+        <v>0.7542245049008078</v>
       </c>
       <c r="D20" t="n">
-        <v>2.917053700376084</v>
+        <v>2.460207590689484</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02243126584630651</v>
+        <v>0.02081683350187633</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2285437084167009</v>
+        <v>0.1327423717274257</v>
       </c>
       <c r="G20" t="n">
-        <v>4.775878960927345e-06</v>
+        <v>4.419417535535532e-05</v>
       </c>
     </row>
     <row r="21">
@@ -5971,22 +5845,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-24.20129119950488</v>
+        <v>2.732677068726353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3281537081539513</v>
+        <v>0.1839916031384909</v>
       </c>
       <c r="D21" t="n">
-        <v>1.495393849073452</v>
+        <v>1.198901683432826</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999756024814448</v>
+        <v>0.01573622430599815</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6066030018316109</v>
+        <v>0.7581927599659812</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04573182402176889</v>
+        <v>0.08895513172204234</v>
       </c>
     </row>
     <row r="22">
@@ -5996,22 +5870,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.747478134069939</v>
+        <v>0.6964596216996944</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9386852526698752</v>
+        <v>0.5604313768970257</v>
       </c>
       <c r="D22" t="n">
-        <v>1.325170333082411</v>
+        <v>0.9366377226424709</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06799351945296392</v>
+        <v>0.402167565194597</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000173504322335255</v>
+        <v>0.02114671717895334</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0009701495777892094</v>
+        <v>0.01207027141512345</v>
       </c>
     </row>
     <row r="23">
@@ -6021,22 +5895,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.63439949686846</v>
+        <v>10.49807444897525</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9176061522311417</v>
+        <v>0.8885921209961979</v>
       </c>
       <c r="D23" t="n">
-        <v>15.17504239572653</v>
+        <v>18.9934547250034</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9964606319349644</v>
+        <v>0.9959133062226876</v>
       </c>
       <c r="F23" t="n">
-        <v>0.201088218615334</v>
+        <v>0.2379498582348187</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9938222007392438</v>
+        <v>0.998817548358046</v>
       </c>
     </row>
     <row r="24">
@@ -6046,22 +5920,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.17864271614379</v>
+        <v>10.34456649050801</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2416689901244636</v>
+        <v>0.2816117182929265</v>
       </c>
       <c r="D24" t="n">
-        <v>12.63997619145576</v>
+        <v>16.25879375922496</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9962950659694466</v>
+        <v>0.9959730633262219</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7515490520994159</v>
+        <v>0.7224343671647709</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9948542171213497</v>
+        <v>0.998987796610546</v>
       </c>
     </row>
     <row r="25">
@@ -6071,22 +5945,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.5503908562654897</v>
+        <v>-7.14436338447392</v>
       </c>
       <c r="C25" t="n">
-        <v>0.882366444406535</v>
+        <v>0.9447255362324242</v>
       </c>
       <c r="D25" t="n">
-        <v>15.14473273310537</v>
+        <v>19.11029022039338</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998437829273088</v>
+        <v>0.9997692038989344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2359669232823085</v>
+        <v>0.2260909891586818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9938345397184903</v>
+        <v>0.9988102746832155</v>
       </c>
     </row>
     <row r="26">
@@ -6096,22 +5970,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13.13510910751658</v>
+        <v>12.66262978960255</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6846187705522042</v>
+        <v>0.5342032682012579</v>
       </c>
       <c r="D26" t="n">
-        <v>15.1421220981418</v>
+        <v>18.87583662246343</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9960040954982367</v>
+        <v>0.9950706961967569</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3030417097239628</v>
+        <v>0.4422373458659321</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9938356023342109</v>
+        <v>0.9988248707547754</v>
       </c>
     </row>
     <row r="27">
@@ -6121,22 +5995,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.56009313472924</v>
+        <v>12.61977008214708</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6145576182918823</v>
+        <v>0.4703815764575677</v>
       </c>
       <c r="D27" t="n">
-        <v>15.18665264897977</v>
+        <v>18.75452505889582</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9958748098971437</v>
+        <v>0.9950873804329252</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3613324221361365</v>
+        <v>0.5033738095913456</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9938174742206334</v>
+        <v>0.9988324230911018</v>
       </c>
     </row>
     <row r="28">
@@ -6146,22 +6020,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.273549452754919</v>
+        <v>-1.301223503645949</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1936196346951979</v>
+        <v>0.09259636187857638</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4831105027403906</v>
+        <v>0.2603935127198713</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007779241611216312</v>
+        <v>0.003711311257906162</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1313119559757916</v>
+        <v>0.4648004718809172</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005002313193809581</v>
+        <v>0.1257189254531214</v>
       </c>
     </row>
     <row r="29">
@@ -6171,22 +6045,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005316467446559637</v>
+        <v>0.0006705917694893229</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.005250682994934927</v>
+        <v>-0.002036577572115559</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003171849812376349</v>
+        <v>0.001555290901274392</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7847224504809142</v>
+        <v>0.9688152321958646</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4411064716764139</v>
+        <v>0.7620438770369066</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7229018300769865</v>
+        <v>0.856596648693598</v>
       </c>
     </row>
     <row r="30">
@@ -6196,22 +6070,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0005318052640540754</v>
+        <v>-0.0004726605604530325</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00152716425842391</v>
+        <v>-0.001523069067353097</v>
       </c>
       <c r="D30" t="n">
-        <v>7.781178994556534e-05</v>
+        <v>8.352566627855422e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002501256976845697</v>
+        <v>0.0003589583794109202</v>
       </c>
       <c r="F30" t="n">
-        <v>1.883222653529189e-98</v>
+        <v>2.896108113691599e-99</v>
       </c>
       <c r="G30" t="n">
-        <v>0.008600119159623399</v>
+        <v>0.005756403317287404</v>
       </c>
     </row>
     <row r="31">
@@ -6221,22 +6095,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.219254722114671</v>
+        <v>-2.539838693676923</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.209922643799528</v>
+        <v>-2.48450429444661</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.229759084496789</v>
+        <v>-3.39438840735285</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001266642454168293</v>
+        <v>6.873919556892773e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>5.171188340347112e-19</v>
+        <v>2.415228514086965e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>3.886137301060594e-33</v>
+        <v>3.692187438901993e-36</v>
       </c>
     </row>
     <row r="32">
@@ -6246,272 +6120,247 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.299665717406983</v>
+        <v>0.3332911612972058</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07736268420396869</v>
+        <v>0.09572190454121328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1418096361083533</v>
+        <v>0.1402853708586093</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06541321069319404</v>
+        <v>0.0223727220909468</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1309957581291631</v>
+        <v>0.05662270097165481</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03370164416070672</v>
+        <v>0.03345970020845029</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.001645434010242e-06</v>
+        <v>-5.263909217955211e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.860678255953622e-05</v>
+        <v>8.855238725938048e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001092404915383186</v>
+        <v>9.243140916473924e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9481247514209452</v>
+        <v>0.5832770465600563</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3527837244786869</v>
+        <v>0.7850068733011313</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0068847831893187</v>
+        <v>0.02132828018100434</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1586443582000678</v>
+        <v>0.3644867416566375</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07562189192137386</v>
+        <v>0.1834540863594954</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01839734567472459</v>
+        <v>-0.1831869621049875</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6386033476588278</v>
+        <v>0.2493319394687146</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4694616038001536</v>
+        <v>0.08106426863856127</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8845819997954686</v>
+        <v>0.1495757345076874</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2015596012828225</v>
+        <v>0.1637863812465849</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.4545492022049143</v>
+        <v>-0.2581328513603522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05163533318531586</v>
+        <v>0.2873269206070425</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7116482269034968</v>
+        <v>0.7024265084307695</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002337957227185711</v>
+        <v>0.05089963773904434</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7882860175313959</v>
+        <v>0.06851335118622331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.466291864952239e-07</v>
+        <v>1.314807232259183e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>2.228897473909732e-07</v>
+        <v>1.43822912176634e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>4.940425368169136e-08</v>
+        <v>3.964746808705245e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2445170833681457</v>
+        <v>0.2194532704596999</v>
       </c>
       <c r="F36" t="n">
-        <v>1.923242932954773e-06</v>
+        <v>0.0009157583746811469</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4719388296472957</v>
+        <v>0.5106488084386316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.0044440259551122</v>
+        <v>-0.01101905536675685</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.008940298600884375</v>
+        <v>-0.005565645910375749</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01364885830823343</v>
+        <v>-0.01328621410474989</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8267505773686389</v>
+        <v>0.5400747071843923</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1441258108059148</v>
+        <v>0.3625922938378494</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1118554101320648</v>
+        <v>0.04876253131614825</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02234562293779363</v>
+        <v>8.09601150904791</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.001361768744716145</v>
+        <v>-6.487469392755176</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02162858909887511</v>
+        <v>-3.155584164683788</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4562090597189103</v>
+        <v>0.537282183677773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.868600709412148</v>
+        <v>0.2029484211144079</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01666574617302711</v>
+        <v>0.6646410858160439</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.90422909833397</v>
+        <v>1.434270313779953</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.177241716278761</v>
+        <v>-0.6603656259654396</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.871317551736054</v>
+        <v>0.09571212281231382</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1046567880961852</v>
+        <v>0.4909088128271671</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5335597838066511</v>
+        <v>0.3221839837143955</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8014708019018379</v>
+        <v>0.9146425467557809</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.9151126999121203</v>
+        <v>-0.386843555652418</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6283435297021154</v>
+        <v>-0.73780795061999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7111981711900655</v>
+        <v>0.7715650626137706</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7114189087302055</v>
+        <v>0.8668452165785748</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4263644329488028</v>
+        <v>0.3500845755065946</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4766599698603839</v>
+        <v>0.4773375015827124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3.267307065119886</v>
+        <v>0.0004547365932485077</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.048014028992689</v>
+        <v>0.0004565743881448609</v>
       </c>
       <c r="D41" t="n">
-        <v>1.057642050709222</v>
+        <v>-0.000169737359077193</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1789589133194227</v>
+        <v>0.5044595713634944</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02192690394894213</v>
+        <v>0.06593942336389645</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3960697141533797</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0004184975352487539</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0005968972400091899</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.0004231159770161574</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.618055392062454</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.05536818236386262</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.3330315445615327</v>
+        <v>0.6325156230027038</v>
       </c>
     </row>
   </sheetData>
@@ -6525,7 +6374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6577,22 +6426,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-48.46210724086878</v>
+        <v>-14.34148117612147</v>
       </c>
       <c r="C2" t="n">
-        <v>2.611506934374648</v>
+        <v>2.172609404025324</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.91130743041681</v>
+        <v>-15.8497099238694</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999994790547942</v>
+        <v>0.9847068644012748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09345873793131375</v>
+        <v>0.04956047835784062</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999459627786154</v>
+        <v>0.9909890395631309</v>
       </c>
     </row>
     <row r="3">
@@ -6602,22 +6451,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3049692306903806</v>
+        <v>0.05781324766338399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1733099296111354</v>
+        <v>0.2532661440677151</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.433437403023067</v>
+        <v>-0.5127814466408754</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5720554326520875</v>
+        <v>0.908832542946542</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2744918260252324</v>
+        <v>0.1032952657054215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05516538370287581</v>
+        <v>0.02243137406690788</v>
       </c>
     </row>
     <row r="4">
@@ -6627,22 +6476,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-19.19107713776902</v>
+        <v>-18.58702746689349</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4833653557553069</v>
+        <v>-0.4727722568499406</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.259502305527537</v>
+        <v>-2.602393773713179</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9988395524447629</v>
+        <v>0.9985516370902846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2386793360285234</v>
+        <v>0.2466225936219936</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01462542986029792</v>
+        <v>0.00636699661763357</v>
       </c>
     </row>
     <row r="5">
@@ -6652,22 +6501,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01926591270377899</v>
+        <v>0.3031106037310646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4256752192528983</v>
+        <v>0.3321660898274294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1136902069810125</v>
+        <v>-0.02507821569695779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9777211963031768</v>
+        <v>0.6272250150288834</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01922762872939476</v>
+        <v>0.05841936777286403</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6439660395561899</v>
+        <v>0.9172720428406386</v>
       </c>
     </row>
     <row r="6">
@@ -6677,22 +6526,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.301300422977525</v>
+        <v>0.6951825928829823</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2163392674621779</v>
+        <v>-0.2934844765112855</v>
       </c>
       <c r="D6" t="n">
-        <v>-14.85709182235651</v>
+        <v>-17.84841938728951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1205230524016626</v>
+        <v>0.4869464295430598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7006153793373882</v>
+        <v>0.6115803943653636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9843584638788344</v>
+        <v>0.9959023542195069</v>
       </c>
     </row>
     <row r="7">
@@ -6702,22 +6551,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7598402795342377</v>
+        <v>0.8721884347941855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1900184517888216</v>
+        <v>0.1624658478435656</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7387405928847177</v>
+        <v>-0.8956971010955606</v>
       </c>
       <c r="E7" t="n">
-        <v>0.140913007658202</v>
+        <v>0.09494674722817065</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3360291611679649</v>
+        <v>0.4058708337079281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02294018327151987</v>
+        <v>0.006677265249062381</v>
       </c>
     </row>
     <row r="8">
@@ -6727,22 +6576,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.967434270837871</v>
+        <v>1.496660262475513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7641312179011827</v>
+        <v>0.7352601109323575</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1815087531410532</v>
+        <v>-0.2069683465361148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01875203802685583</v>
+        <v>0.06239236739915426</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01991015304415063</v>
+        <v>0.02978703057241604</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6455620733403464</v>
+        <v>0.6147637368587584</v>
       </c>
     </row>
     <row r="9">
@@ -6752,22 +6601,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7993163759472207</v>
+        <v>0.1582725774607785</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2462655905679628</v>
+        <v>-0.1986387834810165</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0181460038615183</v>
+        <v>-0.0931573106832934</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1276173835289212</v>
+        <v>0.7182028311528872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05749961519943395</v>
+        <v>0.1209617620888467</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9206295233888899</v>
+        <v>0.6010776624527105</v>
       </c>
     </row>
     <row r="10">
@@ -6777,22 +6626,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.348477365094352</v>
+        <v>2.362406253509769</v>
       </c>
       <c r="C10" t="n">
-        <v>1.277657075259532</v>
+        <v>1.456684868706187</v>
       </c>
       <c r="D10" t="n">
-        <v>1.51103112296312</v>
+        <v>1.63965635623026</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02705549535218113</v>
+        <v>0.03150144124571308</v>
       </c>
       <c r="F10" t="n">
-        <v>1.80618640043711e-09</v>
+        <v>3.373771203807902e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>3.088543751657793e-05</v>
+        <v>3.552402093395659e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6802,22 +6651,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4891442451856611</v>
+        <v>0.8782810626040285</v>
       </c>
       <c r="C11" t="n">
-        <v>1.198909651205582</v>
+        <v>1.503865465632454</v>
       </c>
       <c r="D11" t="n">
-        <v>1.672092471564748</v>
+        <v>1.714653204754564</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7390937568094815</v>
+        <v>0.5557762857445494</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006646097236236661</v>
+        <v>1.134406610712604e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004790908074292515</v>
+        <v>0.0002382006558448392</v>
       </c>
     </row>
     <row r="12">
@@ -6827,22 +6676,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.516330313217216</v>
+        <v>2.161615586289849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6592184795124711</v>
+        <v>0.788169413909089</v>
       </c>
       <c r="D12" t="n">
-        <v>1.35473276130604</v>
+        <v>1.582429441905087</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02278498345300908</v>
+        <v>0.05920415445914309</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003317652180958581</v>
+        <v>0.0003277777758345478</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005621034590141465</v>
+        <v>2.984599165260297e-05</v>
       </c>
     </row>
     <row r="13">
@@ -6852,22 +6701,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.24536351427257</v>
+        <v>3.514170071433443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6353770997525027</v>
+        <v>0.6744281236332079</v>
       </c>
       <c r="D13" t="n">
-        <v>1.430275020360009</v>
+        <v>1.411629402350835</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003123958201296689</v>
+        <v>0.00174535894727863</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01101836745079195</v>
+        <v>0.005932226286715082</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0007026889694841593</v>
+        <v>0.0007057376054000604</v>
       </c>
     </row>
     <row r="14">
@@ -6877,22 +6726,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8846856988340825</v>
+        <v>0.7236960635250863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2442032203258004</v>
+        <v>0.2702131958524354</v>
       </c>
       <c r="D14" t="n">
-        <v>1.66353828659673</v>
+        <v>1.667959909966791</v>
       </c>
       <c r="E14" t="n">
-        <v>0.538763796161757</v>
+        <v>0.6208492005448869</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3708509334890532</v>
+        <v>0.3177884439306629</v>
       </c>
       <c r="G14" t="n">
-        <v>2.580318337988487e-05</v>
+        <v>1.524654518485898e-05</v>
       </c>
     </row>
     <row r="15">
@@ -6902,22 +6751,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6138932302443929</v>
+        <v>1.047681555304363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4866180641627871</v>
+        <v>0.3664077326866705</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9639581717260208</v>
+        <v>0.9880954254805407</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3398311068213641</v>
+        <v>0.08377932884529626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05724394480206967</v>
+        <v>0.1447135916614115</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006127949267942613</v>
+        <v>0.006173234678058209</v>
       </c>
     </row>
     <row r="16">
@@ -6927,22 +6776,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02083460680314753</v>
+        <v>-14.98595062092645</v>
       </c>
       <c r="C16" t="n">
-        <v>1.514308264273374</v>
+        <v>1.611441340981831</v>
       </c>
       <c r="D16" t="n">
-        <v>0.894660243992577</v>
+        <v>1.05937613577882</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9908196050377129</v>
+        <v>0.9970843894941702</v>
       </c>
       <c r="F16" t="n">
-        <v>1.823075083685952e-08</v>
+        <v>1.852349869595327e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04509832039417074</v>
+        <v>0.02084364784624999</v>
       </c>
     </row>
     <row r="17">
@@ -6952,22 +6801,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-46.63933411463267</v>
+        <v>-16.16322450459182</v>
       </c>
       <c r="C17" t="n">
-        <v>1.147611395912509</v>
+        <v>0.6602450583036538</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5240930481646121</v>
+        <v>-0.7715222055706232</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999988267456</v>
+        <v>0.9982774744791589</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005238241470358335</v>
+        <v>0.1087741860989338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5057746093553903</v>
+        <v>0.3642087668726942</v>
       </c>
     </row>
     <row r="18">
@@ -6977,22 +6826,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.00197377368201</v>
+        <v>2.206565774142088</v>
       </c>
       <c r="C18" t="n">
-        <v>1.415162471157884</v>
+        <v>1.239051572035596</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8228524845921096</v>
+        <v>0.9848464733869332</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0193833780452925</v>
+        <v>0.008694737405984853</v>
       </c>
       <c r="F18" t="n">
-        <v>6.948780356621492e-07</v>
+        <v>7.080579825681621e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06354692604628917</v>
+        <v>0.02628639275093348</v>
       </c>
     </row>
     <row r="19">
@@ -7002,22 +6851,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-17.62018829478959</v>
+        <v>-40.98026858842773</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4755385942732361</v>
+        <v>0.542157772295792</v>
       </c>
       <c r="D19" t="n">
-        <v>1.029481398586464</v>
+        <v>1.560068298858266</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9988083331300907</v>
+        <v>0.9999999776742311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3137463275838559</v>
+        <v>0.2725449787691189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1066788275274883</v>
+        <v>0.01372817379214311</v>
       </c>
     </row>
     <row r="20">
@@ -7027,22 +6876,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.817977544226771</v>
+        <v>2.784400408847663</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9812026444353239</v>
+        <v>0.5741968668426568</v>
       </c>
       <c r="D20" t="n">
-        <v>2.603388831989786</v>
+        <v>2.474540587724975</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1095701017758562</v>
+        <v>0.05657741563128855</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06087514484747761</v>
+        <v>0.2568332151110534</v>
       </c>
       <c r="G20" t="n">
-        <v>3.329079658228039e-05</v>
+        <v>6.810947101122797e-05</v>
       </c>
     </row>
     <row r="21">
@@ -7052,22 +6901,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.737963530539363</v>
+        <v>2.526011700063772</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343758862157105</v>
+        <v>-0.1157793784327614</v>
       </c>
       <c r="D21" t="n">
-        <v>1.383608899692878</v>
+        <v>1.175769612151032</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01112314749558399</v>
+        <v>0.02172980910448694</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5462372344607257</v>
+        <v>0.8411872991577058</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04156450447226908</v>
+        <v>0.07486709831109552</v>
       </c>
     </row>
     <row r="22">
@@ -7077,22 +6926,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6505720211293285</v>
+        <v>0.793625028499047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7557029604694844</v>
+        <v>0.6087364320880635</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9485232286675873</v>
+        <v>0.9117956347376447</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4345545192832012</v>
+        <v>0.3530031862799273</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001973628183867721</v>
+        <v>0.01167514074288905</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01265628158382713</v>
+        <v>0.01774594604800369</v>
       </c>
     </row>
     <row r="23">
@@ -7102,22 +6951,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.66237681447269</v>
+        <v>-7.967015178455043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6875364021566867</v>
+        <v>0.8682141345989848</v>
       </c>
       <c r="D23" t="n">
-        <v>20.63724026836312</v>
+        <v>14.23401336419435</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999948765144451</v>
+        <v>0.9986645140323596</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3308433385534655</v>
+        <v>0.2355493694756104</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9994399267246542</v>
+        <v>0.9919075679514986</v>
       </c>
     </row>
     <row r="24">
@@ -7127,22 +6976,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.74828405669778</v>
+        <v>8.744719380368501</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0363693046577961</v>
+        <v>0.1702031971862442</v>
       </c>
       <c r="D24" t="n">
-        <v>18.0691266493519</v>
+        <v>11.73615009414311</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999948672847633</v>
+        <v>0.9906746147902751</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9615596066954522</v>
+        <v>0.8253823078992327</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9995096226526992</v>
+        <v>0.9933276361749384</v>
       </c>
     </row>
     <row r="25">
@@ -7152,22 +7001,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-8.049412226309745</v>
+        <v>-6.921176029797144</v>
       </c>
       <c r="C25" t="n">
-        <v>1.163757204209248</v>
+        <v>0.9313754717957218</v>
       </c>
       <c r="D25" t="n">
-        <v>20.93463240351252</v>
+        <v>14.17444068862535</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999999982615</v>
+        <v>0.9993649704253559</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1166448739202206</v>
+        <v>0.2238297515161018</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9994318558122521</v>
+        <v>0.9919414358396353</v>
       </c>
     </row>
     <row r="26">
@@ -7177,22 +7026,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.61360398116921</v>
+        <v>11.030165423283</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5874570841745007</v>
+        <v>0.6331453326263639</v>
       </c>
       <c r="D26" t="n">
-        <v>20.68448845957001</v>
+        <v>14.28696053471298</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999946667595107</v>
+        <v>0.9882375478163231</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3636831677232464</v>
+        <v>0.3509837081333803</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9994386444579744</v>
+        <v>0.9918774668345209</v>
       </c>
     </row>
     <row r="27">
@@ -7202,22 +7051,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.93242527469287</v>
+        <v>11.06495678580826</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5274738144957318</v>
+        <v>0.6255062776577895</v>
       </c>
       <c r="D27" t="n">
-        <v>20.57461266374822</v>
+        <v>14.3114653039631</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9999946324881902</v>
+        <v>0.9882004497776565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4215058619269976</v>
+        <v>0.3621237947507991</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9994416263725232</v>
+        <v>0.9918635357433305</v>
       </c>
     </row>
     <row r="28">
@@ -7227,22 +7076,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.064917777411577</v>
+        <v>-1.314509657308459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1296029695650235</v>
+        <v>0.1430516302697221</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4847121830426449</v>
+        <v>0.4554339283031604</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01250471800784165</v>
+        <v>0.00281811252765189</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3073439585505722</v>
+        <v>0.2482404733297718</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004730048582995097</v>
+        <v>0.007069461121743258</v>
       </c>
     </row>
     <row r="29">
@@ -7252,22 +7101,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0008868561673854492</v>
+        <v>-0.002055541497845155</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.003321912054755806</v>
+        <v>-0.002475444562385425</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0005397116580420974</v>
+        <v>-0.004565278805165253</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9613955408565242</v>
+        <v>0.9071716210462928</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6206542226965566</v>
+        <v>0.7091196994219504</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9519347419373395</v>
+        <v>0.6018566436227765</v>
       </c>
     </row>
     <row r="30">
@@ -7277,22 +7126,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.00052044658197213</v>
+        <v>-0.000478453189305075</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001448107203066398</v>
+        <v>-0.001507803009206452</v>
       </c>
       <c r="D30" t="n">
-        <v>7.728380544699987e-05</v>
+        <v>9.139643467736525e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>9.678966886429671e-05</v>
+        <v>0.0002541719296621061</v>
       </c>
       <c r="F30" t="n">
-        <v>2.121896841388434e-96</v>
+        <v>3.003333385093925e-100</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009631144051044215</v>
+        <v>0.002320366407694187</v>
       </c>
     </row>
     <row r="31">
@@ -7302,22 +7151,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.26287345438041</v>
+        <v>-2.384456150255867</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.248265887261427</v>
+        <v>-2.422672724211211</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.241628816950672</v>
+        <v>-3.377238639432648</v>
       </c>
       <c r="E31" t="n">
-        <v>8.424291248815284e-05</v>
+        <v>1.707688349494118e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>5.506580153986201e-20</v>
+        <v>2.264969162041187e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>3.628180500126807e-35</v>
+        <v>2.0137885556545e-36</v>
       </c>
     </row>
     <row r="32">
@@ -7327,272 +7176,247 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4126318856654682</v>
+        <v>0.4054277856695762</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09018136080620462</v>
+        <v>0.0893658428322983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1146251763004516</v>
+        <v>0.1373622144804717</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004291131479090873</v>
+        <v>0.005469987005831549</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07315002599588931</v>
+        <v>0.06786973553952132</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08586929901307573</v>
+        <v>0.03913733405862026</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.104933527208787e-05</v>
+        <v>-6.77335084082735e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.562496521630274e-05</v>
+        <v>8.460733371825531e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>8.568553125629192e-05</v>
+        <v>8.122133496557387e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8998955683564612</v>
+        <v>0.4848480336535075</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3977901840471972</v>
+        <v>0.7899481138867255</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03398853064741661</v>
+        <v>0.04286668113315327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3015106418561355</v>
+        <v>0.2885408102522967</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2152374630169511</v>
+        <v>0.1153591176447555</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1056205357164588</v>
+        <v>-0.2307708192562885</v>
       </c>
       <c r="E34" t="n">
-        <v>0.338623208171141</v>
+        <v>0.3539759519994333</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0405896829205191</v>
+        <v>0.2543312036114723</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4093247716364131</v>
+        <v>0.06604400613853917</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1930200228263238</v>
+        <v>0.1740049645362976</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.392611005894744</v>
+        <v>-0.2606897485306129</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004133734878257836</v>
+        <v>0.3044532714275326</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7049404618194455</v>
+        <v>0.6901726882235588</v>
       </c>
       <c r="F35" t="n">
-        <v>0.007789609613354715</v>
+        <v>0.04167357620306091</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9831386823247367</v>
+        <v>0.05439444438801953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.540174395286215e-07</v>
+        <v>1.308239800068534e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>1.999593503517812e-07</v>
+        <v>1.415917656756199e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>6.249148297165619e-08</v>
+        <v>5.760105864749059e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1896237882333166</v>
+        <v>0.2164840259265917</v>
       </c>
       <c r="F36" t="n">
-        <v>1.895379613814185e-05</v>
+        <v>0.00104127675680901</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3657945903202345</v>
+        <v>0.336156840277594</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01583071891825164</v>
+        <v>-0.01913231915572852</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.009828465743820331</v>
+        <v>-0.005885650516099438</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01658062408424998</v>
+        <v>-0.01430338056302528</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4131244894183964</v>
+        <v>0.3367392675031019</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1120321377778349</v>
+        <v>0.3251881063683115</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0566883261962729</v>
+        <v>0.04072863170304436</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.04906802599750165</v>
+        <v>10.02726612800198</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00595165756450052</v>
+        <v>-2.918469626391328</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02352954789214494</v>
+        <v>0.3958358431677137</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1452035131788328</v>
+        <v>0.4109747764173317</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4800624781352507</v>
+        <v>0.5587533953688052</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01450982587771199</v>
+        <v>0.9580958189203957</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.521606414032545</v>
+        <v>1.117206589525879</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.765482359321159</v>
+        <v>-0.5963181883135442</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.977585843784613</v>
+        <v>0.1718443737950388</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9072574281936561</v>
+        <v>0.5880697512651908</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306828605408828</v>
+        <v>0.3611914477464689</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7920116394065502</v>
+        <v>0.8479831656709655</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.477775900689476</v>
+        <v>-1.754087437594859</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5414620011677259</v>
+        <v>-0.7663963313073787</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004481756888622542</v>
+        <v>0.5360491559126007</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2856440661024946</v>
+        <v>0.4321173627525311</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4970984463803061</v>
+        <v>0.3221575188346375</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9964451908198836</v>
+        <v>0.6190116343682407</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4.511805084425069</v>
+        <v>0.0004379667217802615</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.092943143187243</v>
+        <v>0.0003832279589542998</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04652445380191406</v>
+        <v>-0.0002386701131690975</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07109788821540734</v>
+        <v>0.5108734886162576</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2270818960426505</v>
+        <v>0.1207741172811064</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9702888813553253</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.001032526239686511</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0008452065437601178</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-2.272392870792741e-05</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.1968296438035307</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.007476111351300952</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.9588635810420327</v>
+        <v>0.5028870755784581</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,24 +7481,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-13.68899839743395</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.87222014751942</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-16.17044041224195</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9948231649750964</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.06656242576659045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9969795122885476</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7682,24 +7494,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.3226467098667545</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1338883906312799</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.4358711803709034</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5494911183973573</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4094322476413911</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.05472594070930164</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7707,24 +7507,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-8.690454375209891</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.7265713020039003</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.357138977885656</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8855558028587097</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.08315905953962062</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01189274483573734</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7732,24 +7520,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.187467243686769</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2959131150950444</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1096493064829247</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7650576939745629</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1035277094015558</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6472174475479768</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7757,24 +7533,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.5618104246111766</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.4254339724709861</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-29.75360301542148</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5542957350044917</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4430378280818679</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.99998155041668</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7782,24 +7546,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.6998568883429346</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07358329241138246</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.6943693213837085</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1875884488402939</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7210139244157003</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.03328060391225651</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7807,24 +7559,12 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.080242261572941</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7540948042529411</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1272789191571174</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2573566052303473</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.02592395297627373</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7561968613484121</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7832,24 +7572,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.2988480030152181</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.2484877259478138</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.04910169396316617</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5185796551806563</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.06028137715011472</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7843656688629159</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7857,24 +7585,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2.50156134918836</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.355658789104776</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.358320719057453</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.02436052865449474</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6.816890488584e-10</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.000102825259630041</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7882,24 +7598,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1.649598146526646</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.551447316898848</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.646419936004944</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2891736674368252</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.522827922890559e-05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0002644211719404946</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7907,24 +7611,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.443897841289963</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.78048130421644</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.454743286458734</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.03492643467810943</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0006761089352954333</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0001006484117887331</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7932,24 +7624,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3.147913288403486</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.636931321937969</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.344677892871634</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.005092193852001955</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.01210376928447824</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.001034506459927936</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7957,24 +7637,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.7814723635999185</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1038133945214573</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.588797928977525</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5953364247516625</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7124273894410467</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.45275324933378e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7982,24 +7650,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.4595099748820759</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.01175834170459444</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.925915432847207</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.4996523671671425</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9657702155924964</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.01137590087646888</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8007,24 +7663,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-14.2702891396505</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.507392982135338</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.02187447876493</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9944449373060519</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.337874304348397e-08</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02343448439452723</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8032,24 +7676,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-18.5978343948745</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8050332506773048</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.4041622125135449</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9993815194983767</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.04415610566569177</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5975747623941021</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8057,24 +7689,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1.999335201322313</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.267849502624792</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9616173355888833</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.02093781653562097</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.535530465861948e-05</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.03030175516442999</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8082,24 +7702,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-21.72951938075864</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1269627764567443</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.33381874726729</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9997328881879057</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7971120726612614</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.02599842672771829</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8107,24 +7715,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1.006747269115644</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3988221827169545</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.44512481676152</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5428961532802289</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.4438764811316782</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5.976281936616928e-05</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8132,24 +7728,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2.12485604193341</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2896919199448784</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.514218744945828</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.05471043303985774</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.6037589468515836</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.01640345943389959</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8157,24 +7741,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.4136662143296063</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7056249390767607</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.075405924701358</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6192434413040153</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004609642424690181</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.004535816589845794</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8182,24 +7754,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>11.29822307751114</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8955288773633466</v>
-      </c>
-      <c r="D23" t="n">
-        <v>16.98059129300881</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9957272776812051</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2111604886118599</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9968281841653667</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8207,24 +7767,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>10.4983663866251</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2216613734214019</v>
-      </c>
-      <c r="D24" t="n">
-        <v>14.41857773210524</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9960297626206446</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7705453697739215</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9973067423952456</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8232,24 +7780,12 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-8.839832020290967</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.017106792728011</v>
-      </c>
-      <c r="D25" t="n">
-        <v>17.03523755276436</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9998791881205671</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1828032574203668</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9968179768227103</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8257,24 +7793,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>12.57501556298726</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.4985653040570979</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.76864679634998</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9952444293147882</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.4487993232722549</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9968677732044376</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8282,24 +7806,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>12.94784274902238</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5826107938050804</v>
-      </c>
-      <c r="D27" t="n">
-        <v>16.73750752527081</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.995103436748647</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.3825653268010311</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9968735897028819</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8307,24 +7819,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-1.165832929552187</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1099373097654353</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.4531446116347619</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.009849815826139967</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.3978577339584833</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.007747777680535688</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8332,24 +7832,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-0.005731083842356647</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.002342610536326173</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.001264897556331524</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.7529932806357759</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.7322619368467423</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.8846719671411498</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8357,24 +7845,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>-0.0005182526144976994</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.001558888505880886</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9.467226107880369e-05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0001810353060316826</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.579361474576749e-94</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.001519675029848431</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8382,24 +7858,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>-2.474067487540299</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-2.282400740804354</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-3.210435101145742</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.056351670588646e-06</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6.876278813804014e-20</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4.461735580896259e-34</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8407,274 +7871,129 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.4675875306804205</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.08498184888040483</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1058774945321308</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.001721027421071748</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1014335144289435</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1110500236305812</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>4.959449636539691e-05</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-1.217527261026917e-05</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0001026999092162417</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5726857390299969</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6987457829503823</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.01025857997379467</v>
-      </c>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5422147478832892</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1282655273567024</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.09141944544207213</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1038417037052634</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2359254294173755</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4813270414663143</v>
-      </c>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5950909697901099</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.4363955296033297</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-0.03925661603146324</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.2907133947577935</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.004113583590893537</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.8422375942218022</v>
-      </c>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>7.239455164044333e-08</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.985955886507111e-07</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.239616826129342e-08</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5303949409520106</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3.493192684065679e-05</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.5329971059992565</v>
-      </c>
+          <t>UrbBuildDensity_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.002181357455451201</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.007522605360762196</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.01323834602081275</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9093890483648193</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2392231318314927</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1252523694002919</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.05016963926142413</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.002584227170911151</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.02253495636548153</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1732361960968728</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.7642732118777705</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.01908263468668425</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>14.26110052307438</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-8.290325466431389</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.9119108753785878</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.208305030587546</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.1184010211244222</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.8974789390581438</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.3614393659647784</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.073502796619089</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4812075453015416</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.8893932324764333</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.185160065243597</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.62176423200255</v>
-      </c>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-2.476812338306144</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-1.239838876244731</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9935650393033791</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3281967534288852</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1752089068129783</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.4181205049343047</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0002022236366023562</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0008059299896818859</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.0004866727267458501</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8021970177832101</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.01317218015466076</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.2658398563345737</v>
-      </c>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/ML_Results/mode_MNLR_new/Nimes.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Nimes.xlsx
@@ -7,15 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ17489375" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19571976" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ21770572" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ24366406" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26636102" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ29036562" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ31018476" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ33052174" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35084086" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ56868315" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ59001949" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01139078" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ03168584" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ05137948" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ07232339" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09491075" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ11842938" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +484,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-32.18699825672376</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.801846634204485</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-16.76272356619147</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.01527149303964628</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9913565912966795</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,24 +497,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.01796748785088504</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4247141383946778</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.4759183599398259</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9722669421810731</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.006856275470182654</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.04228186596267974</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -533,24 +510,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-15.84318323626552</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6349548090787055</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.295302127997632</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9943602094234441</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1155278300833685</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01394798687976389</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -558,24 +523,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.3126749818058543</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4843702465500732</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1165298214659568</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6166022780662748</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00741536311693595</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6365321989451636</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -583,24 +536,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1.186085346020957</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.2767910572480101</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5.79611448821485</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1930193380064718</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.623491707951597</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4809768880741611</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,24 +549,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.799247710057074</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2781904339636663</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.6606892405435663</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1325689371412257</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1538871275144266</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.04814928207822242</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -633,24 +562,12 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.584105404671547</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8782318480224937</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001200676736750112</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0402349174086885</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.006919924700618335</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9976723709006162</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -658,24 +575,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.1843976898493635</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.1357228690546324</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1149903279141642</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6774698770017702</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2908120753746224</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5273278166767658</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -683,24 +588,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2.563108750546975</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.213651604073887</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.359797111161398</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01907393404581352</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.099597016171053e-09</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0002652139414759293</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -708,24 +601,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.6065933614635151</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.3022270926452</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.812187527364127</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6827431002766633</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0001271997479365047</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001881326059354438</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -733,24 +614,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.481656113087585</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6804356097731357</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.596633743934441</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.03022260975676998</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001883969623581493</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.489507753323922e-05</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -758,24 +627,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3.256291527026573</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5089421570934225</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.608216725147888</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0037845504428197</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.03927981374953801</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0001844525346442895</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -783,24 +640,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.8286261159159617</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1751934918449409</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.683259617035892</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5727496119346823</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.525465993146115</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.867866820127052e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -808,24 +653,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.01507307911562067</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4599045376475955</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.120144211740739</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9835088605452195</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.07292607775983957</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.001881063518490138</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -833,24 +666,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-10.53601181959908</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.566913170109185</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.197384078564719</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9719799358398548</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.425972807364155e-09</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.009243158525828405</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -858,24 +679,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-16.63815782110514</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.250274212728626</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.1986684701510078</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9985685365422371</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.00259880668617085</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.8047326712338461</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -883,24 +692,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1.88498621513698</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.32783188388052</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.123920510836475</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.02342150737380059</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.371244492153363e-06</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0145149690889902</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -908,24 +705,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-16.24094602114047</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3065595078807186</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.252438697767016</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.99730802750925</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5101768517269956</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.04228267430865217</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -933,24 +718,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2.520645747674584</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7270240876398834</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.359177438695041</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1981381672856332</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1593589783033703</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0002580997638110979</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -958,24 +731,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2.615269080868742</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4597266384540366</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.588956089522114</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01193068615902548</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.4319588638599928</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02005396097892121</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -983,24 +744,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.3564500187676768</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5128797519122906</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8976249498609578</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6651966486540672</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.03329123835006809</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02500873888557948</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1008,22 +757,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>30.42863306708443</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.346970221893709</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.58011001193376</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.6584340186386299</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9924819804174942</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1031,22 +770,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>30.53852887229578</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.2919861091664358</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.04511641039865</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>0.723186539538569</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9937890835967387</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1054,22 +783,12 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>13.26619082409459</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8830572783596106</v>
-      </c>
-      <c r="D25" t="n">
-        <v>14.60856641835856</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>0.2756927503397176</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9924673079285599</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1077,22 +796,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>32.46467229577272</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2744830337749896</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14.43160438975632</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>0.7059256525854063</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9925585527476432</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1100,22 +809,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>32.82383882828834</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2387507375861488</v>
-      </c>
-      <c r="D27" t="n">
-        <v>14.33967887510754</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>0.7454381728362668</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9926059515019542</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1123,24 +822,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-1.122513049218787</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.004694428915526881</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.2799824717361145</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.007958067423677979</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9702113182877222</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1042214116615324</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1148,24 +835,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-0.004589860874269595</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.006403789578630336</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.005573308619834308</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.8028435587451932</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.3350697717183054</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.5326985942599884</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1173,24 +848,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>-0.0005141727844250584</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.001540794765449683</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9.282190444750051e-05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0001069625496211142</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.205688623693825e-101</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.002219994714282303</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1198,24 +861,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>-1.828737213934057</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-2.37415318185742</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-3.443511464750195</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.003933423306261763</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.765800372549004e-21</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.095221953797597e-37</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1223,24 +874,12 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.4106093513834754</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0682382934677941</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.09461533298956074</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.005211504516494422</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1751268758157679</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1615019931312673</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1248,24 +887,12 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>5.711241218582736e-05</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-1.127033847592161e-05</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0001206271903659707</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5508654257566505</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7261154172117613</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.003153492411217511</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1273,24 +900,12 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.2046595460062056</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.07780425983710583</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.232993379173123</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5022614938099289</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.4465363652796976</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.07000649178694378</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1298,24 +913,12 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.4892730181003913</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.3144032786699452</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3534958114789744</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.3248894347544412</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.01699688799013438</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.02709560241462565</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1323,149 +926,90 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>7.420170196020636e-08</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.870080203180828e-07</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.950136267001272e-08</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5140403038162855</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.01308336586814e-05</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.6363282766253853</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.05219062132145216</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.002430919036682634</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.009685332581460877</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.06333967407549558</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.6829123433791611</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1338440344815126</v>
-      </c>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>6.694333284222949</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-7.893758844849734</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.6440702470307569</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5349441246435538</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1155643302946951</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.9301780860063251</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-2.652335845143412</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.6508032501421176</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.7131931745113735</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.2033467087455224</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3304253198194305</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.4403278154102218</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-2.957328987185233</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.115942027729782</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.009557923615746</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.1671394199141852</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1551991207352341</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.3691462918238071</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.0004155042978093221</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0004126854946017092</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.0003603665218926119</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5725998342077205</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.09756506931821608</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3215005985545304</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1478,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,12 +1073,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-10.71508137959526</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.754997847930032</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-10.5901020512949</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9722956104010446</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01574370670788026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9403295299834131</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1542,12 +1098,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.600712553440686</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1904856751076584</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.4648900013726591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2810085999715238</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2220735997375826</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03911106853098345</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1555,12 +1123,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-16.72371030901565</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.9312370269228641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.500278632983076</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9963608346118875</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02465867328079625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.007040243336277221</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,12 +1148,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.3972763896335482</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3660445489216668</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0260025741527071</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5302233095743114</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03935837775050508</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9148712953947846</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1581,12 +1173,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.278449286755716</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8271748671621381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-21.58821334559708</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1308260930765378</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1748390462708055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9991765224196265</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1594,12 +1198,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.8633630437447271</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2363141487626907</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6746178475003539</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08996694890938237</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2294588701465086</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03389338884692689</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1607,12 +1223,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.50851154587628</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9039345966110526</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1119204021789083</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04883932520877977</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.006176291611444129</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7902072904891098</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1620,12 +1248,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-0.006838415527534474</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1447514297231951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02877940767947812</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9874701417447882</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2604854692289155</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8730347697869449</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1633,12 +1273,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.112137825634326</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.282835234969238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.322704034040028</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05593408217767828</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.805491616317305e-10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0001555025823813294</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1646,12 +1298,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>-13.44334932482153</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.200301195763564</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.395773668555758</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9798950502764108</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.000368270622375099</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002092927631883927</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1659,12 +1323,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.745015546826821</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7869878636705407</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.396911780142283</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01480478716326241</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0004139470820434099</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0002001429854273493</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1672,12 +1348,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>3.439031690927023</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6939719234985202</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.232021374871713</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002502854505086716</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.004356977675309267</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.002566550013175085</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1685,12 +1373,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.02301129789569</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2022445453239768</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.629310138939652</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4908524993125618</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4619178473817448</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.358013507629498e-05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1698,12 +1398,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.9983066522283094</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3711482031619592</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9439576533364941</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.09609131624286922</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1389676367192822</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.008814614419983376</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1711,12 +1423,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-141.8498292163902</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.470399153738722</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8728126457997687</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.450099157677139e-08</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05264372097177715</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1724,12 +1448,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-16.65596245414407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7259611023966013</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.155430905915948</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9985630011637672</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06388066267457629</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1813275581782648</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1737,12 +1473,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1.911214452218797</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.476277167903909</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8199182510419828</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02221862597123559</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.799887631313034e-07</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.06497520977999603</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1750,12 +1498,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-15.8343579489121</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3562354044239562</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.409751922537196</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9976283859791217</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4414662286323103</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01852980056541471</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1763,12 +1523,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>4.268983239770719</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6177335300214379</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.581680000335949</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.003167276099040984</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2135537770287972</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.788224218937149e-05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1776,12 +1548,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>-26.89925680273306</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.328810886555996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.618749281878396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9999872908207036</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5653765879666235</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01027098715100253</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1789,12 +1573,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.6926691611152695</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.528777687343176</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9814869054809162</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4670385257445102</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03091379606513018</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.009382953951770506</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1802,12 +1598,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>6.018217918010885</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5375206169086586</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.852732827179192</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9844366667173378</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4752681528220729</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9444734259759868</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1815,12 +1623,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>6.314170355822381</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2355111234927</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.45880310305775</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9836714291354599</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7659287923157283</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9579503872478043</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1828,12 +1648,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>-15.158828421985</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4867502416657827</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9.564624980800518</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9999125086448317</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5330994170749441</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9460947845335402</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1841,12 +1673,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>8.353818465518614</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3026301016725422</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.785188444773128</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9783977552204642</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6672715816712839</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9448533468793839</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1854,12 +1698,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>8.57175042404965</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2450275445295995</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.713393550774393</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9778343476160195</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7307592560990428</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9452573736690314</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1867,12 +1723,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-1.576183059358329</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.09473109298797468</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3861586577135944</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001005838075243984</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4510067135240753</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02294861544314592</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1880,12 +1748,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>-0.0002052426186006308</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.007623425700869261</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0018595248212928</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9908065486968577</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2579497908339361</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8329586756749435</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1893,12 +1773,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>-0.0004596279603503591</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001512832928920728</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.917140856898469e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0004254432570944652</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.77620686711352e-101</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01046678249679485</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1906,12 +1798,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>-1.558277377718089</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.399047345459373</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.310459783316237</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02219058321409123</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.186571814089109e-23</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.487372759216792e-37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1919,12 +1823,24 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.08436508310116937</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.09943001851028767</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1311819833783766</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6072989590213487</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.04788035521810217</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.04883536333205191</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1932,12 +1848,24 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0.0002961220593281237</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.002970518980239925</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.005970369409285222</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.976362757574976</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3690729118759716</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1667318868808608</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1945,12 +1873,24 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>0.1195062726028821</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2008863464139042</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1585473542033136</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7061586370483741</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.06308679166987533</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2141298858688403</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1958,12 +1898,24 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>-0.04990064492914869</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.31116885758084</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2116712217665281</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9112708803121587</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02112253042829326</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2350132101050256</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1971,77 +1923,174 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0.02390270299994048</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2120179236655011</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.09814512807523938</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8580881405758989</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.193749859693914e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1417183874922282</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.004502986572592291</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.009680209036590339</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.009383137216570641</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7865220079447168</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1005416083270219</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2311900060065876</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.005120141781463121</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01163724424281801</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.01785737716387642</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8041046959098046</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.185177537310994</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04697533148027131</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1253993885163431</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.08507168678253058</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.05094799787897365</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2623160961031655</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1115710289375767</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5066099594124691</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.01392839724643498</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.004575798223208829</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.0005251099666873512</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4602521077619077</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4620806559200897</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9495176280400986</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.01621969645707111</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.01387128824911738</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.002182196379153361</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4803986205109404</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.08888797976047276</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8456871703940476</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0.08310550539516338</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.101056597254745</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.03842902415959841</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3837661145688099</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.002161636194183706</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.427948834917816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2054,7 +2103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,22 +2155,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-160.7874081630943</v>
+        <v>-18.0637113666111</v>
       </c>
       <c r="C2" t="n">
-        <v>2.171011813834783</v>
+        <v>3.713765064305929</v>
       </c>
       <c r="D2" t="n">
-        <v>-17.93464664395471</v>
+        <v>-19.91056796836781</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999962372582333</v>
+        <v>0.9965508382398413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06266824148187876</v>
+        <v>0.01799619580837104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9950528309467677</v>
+        <v>0.9989630671052978</v>
       </c>
     </row>
     <row r="3">
@@ -2131,22 +2180,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07535236559507433</v>
+        <v>-0.07709796378504996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2456350023002496</v>
+        <v>0.2539006285962354</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3607571211899127</v>
+        <v>-0.3614315283722015</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8834879564657967</v>
+        <v>0.8807796397644913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1209163288101254</v>
+        <v>0.1094324413958949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1096012983794816</v>
+        <v>0.1092448107359309</v>
       </c>
     </row>
     <row r="4">
@@ -2156,22 +2205,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.48669597481412</v>
+        <v>-14.35739817267125</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.671871235617422</v>
+        <v>-0.6646491282860328</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.053449495797786</v>
+        <v>-2.069094227003773</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9962606597474276</v>
+        <v>0.9906556380317015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1018013512621996</v>
+        <v>0.1072959019957614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02571867222405794</v>
+        <v>0.02598293975843393</v>
       </c>
     </row>
     <row r="5">
@@ -2181,22 +2230,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3057352021557352</v>
+        <v>0.2861172590079994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3493567596111439</v>
+        <v>0.3605628733651849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.118046793768922</v>
+        <v>0.1225094033361374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6230147725942494</v>
+        <v>0.6463853754234017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04886184890208726</v>
+        <v>0.04260059427197575</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6222840056859471</v>
+        <v>0.6096352458652181</v>
       </c>
     </row>
     <row r="6">
@@ -2206,22 +2255,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.28055007302357</v>
+        <v>1.258421325437595</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5457629248050465</v>
+        <v>-0.5324164465908846</v>
       </c>
       <c r="D6" t="n">
-        <v>-18.90951470749912</v>
+        <v>-68.41390055316656</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1235206351202562</v>
+        <v>0.1292690762374508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3233670322150455</v>
+        <v>0.3355055947709346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.997356374770341</v>
+        <v>0.9999999999998285</v>
       </c>
     </row>
     <row r="7">
@@ -2231,22 +2280,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8236372866599337</v>
+        <v>0.8253872134970567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1306393648933514</v>
+        <v>0.1400407560641286</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7458969261180262</v>
+        <v>-0.730094444506049</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12125132737115</v>
+        <v>0.1202335389814149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.50693193313228</v>
+        <v>0.4778792907955137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02026506399550292</v>
+        <v>0.02304878648256333</v>
       </c>
     </row>
     <row r="8">
@@ -2256,22 +2305,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.794427769354426</v>
+        <v>0.7525228484099387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6425797945399521</v>
+        <v>0.6909250206848838</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1427585971612074</v>
+        <v>-0.109753542707582</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4011139815070475</v>
+        <v>0.42628746424907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05994049149717015</v>
+        <v>0.04341165233726911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7309626542221636</v>
+        <v>0.7923006423577915</v>
       </c>
     </row>
     <row r="9">
@@ -2281,22 +2330,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3506511964461505</v>
+        <v>0.3602658553434842</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2153849135308916</v>
+        <v>-0.2076449277383165</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04135187614427884</v>
+        <v>-0.02874380008563663</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4214359668284696</v>
+        <v>0.4088150610229281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09527737867588809</v>
+        <v>0.1087412038784961</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8161937181422112</v>
+        <v>0.8720678390786835</v>
       </c>
     </row>
     <row r="10">
@@ -2306,22 +2355,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.221875704278321</v>
+        <v>2.217833768057392</v>
       </c>
       <c r="C10" t="n">
-        <v>1.479291608308783</v>
+        <v>1.467311118872178</v>
       </c>
       <c r="D10" t="n">
-        <v>1.476042270112716</v>
+        <v>1.477957678891766</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04338874109716382</v>
+        <v>0.04374572533966758</v>
       </c>
       <c r="F10" t="n">
-        <v>2.265049968454428e-12</v>
+        <v>3.672246941919946e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.711420730720407e-05</v>
+        <v>1.763989511047321e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2331,22 +2380,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5665010929127507</v>
+        <v>0.6008622381183701</v>
       </c>
       <c r="C11" t="n">
-        <v>1.304966109039343</v>
+        <v>1.303505344657839</v>
       </c>
       <c r="D11" t="n">
-        <v>1.533796358153096</v>
+        <v>1.547158598179431</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6951136498426165</v>
+        <v>0.6776974223194616</v>
       </c>
       <c r="F11" t="n">
-        <v>9.079795123979955e-05</v>
+        <v>9.521317345053234e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006122643207065135</v>
+        <v>0.0005756815377680937</v>
       </c>
     </row>
     <row r="12">
@@ -2356,22 +2405,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.30496660303267</v>
+        <v>2.290212828680804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8479294939845816</v>
+        <v>0.8340622124022298</v>
       </c>
       <c r="D12" t="n">
-        <v>1.416853198559569</v>
+        <v>1.403654633584517</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04189740874302764</v>
+        <v>0.04317389147971613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0001607545126116793</v>
+        <v>0.0002044284148928987</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001488642661022089</v>
+        <v>0.0001769402770621359</v>
       </c>
     </row>
     <row r="13">
@@ -2381,22 +2430,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.394334832994081</v>
+        <v>3.426092105023982</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7742398869325161</v>
+        <v>0.7842172464765275</v>
       </c>
       <c r="D13" t="n">
-        <v>1.303500191939705</v>
+        <v>1.318229174908744</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002755789598448318</v>
+        <v>0.002581319506071521</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001739284253706788</v>
+        <v>0.00157233901990203</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001200524440868496</v>
+        <v>0.001076788674477056</v>
       </c>
     </row>
     <row r="14">
@@ -2406,22 +2455,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5222638090715329</v>
+        <v>0.5210501512314289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3719626503539128</v>
+        <v>0.3691387981950405</v>
       </c>
       <c r="D14" t="n">
-        <v>1.39911836919927</v>
+        <v>1.401837877619943</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7204381746529611</v>
+        <v>0.7211436509922461</v>
       </c>
       <c r="F14" t="n">
-        <v>0.172385287368704</v>
+        <v>0.1769108478848576</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002394363521172476</v>
+        <v>0.0002424270151279856</v>
       </c>
     </row>
     <row r="15">
@@ -2431,22 +2480,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2648650708631146</v>
+        <v>-0.248238986322013</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2926076314882043</v>
+        <v>0.2767397204615738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7885541978646509</v>
+        <v>0.7914314618507617</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7316170202169597</v>
+        <v>0.7467921379579958</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2540112077251682</v>
+        <v>0.2822300667890775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02946528581029931</v>
+        <v>0.02867627558719287</v>
       </c>
     </row>
     <row r="16">
@@ -2456,22 +2505,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.082819834760523</v>
+        <v>-19.04928029240857</v>
       </c>
       <c r="C16" t="n">
-        <v>1.576902926858555</v>
+        <v>1.549139373456402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.952214709853221</v>
+        <v>0.9331959142874771</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9201249328453049</v>
+        <v>0.9994582364109426</v>
       </c>
       <c r="F16" t="n">
-        <v>4.426123812932793e-09</v>
+        <v>8.743467005250813e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02742283780482796</v>
+        <v>0.03073509348659724</v>
       </c>
     </row>
     <row r="17">
@@ -2481,22 +2530,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-18.55016941923896</v>
+        <v>-26.80754499311493</v>
       </c>
       <c r="C17" t="n">
-        <v>1.074438856746684</v>
+        <v>1.035258190720431</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.11213496272181</v>
+        <v>-1.081373002766545</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9993475463217354</v>
+        <v>0.9999845422953243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01031279029147658</v>
+        <v>0.01363931143663051</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1981166255812211</v>
+        <v>0.2093642024241085</v>
       </c>
     </row>
     <row r="18">
@@ -2506,22 +2555,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.138635098442492</v>
+        <v>2.147265550686717</v>
       </c>
       <c r="C18" t="n">
-        <v>1.448072474354213</v>
+        <v>1.428551627519118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7616397750566347</v>
+        <v>0.7578575282211432</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009541314184550018</v>
+        <v>0.00962058170738557</v>
       </c>
       <c r="F18" t="n">
-        <v>2.865210171804159e-07</v>
+        <v>4.341317350009415e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07992156772770384</v>
+        <v>0.08131339672919591</v>
       </c>
     </row>
     <row r="19">
@@ -2531,22 +2580,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-20.27096888381547</v>
+        <v>-20.44940283880818</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3934116373269259</v>
+        <v>0.3956264430481656</v>
       </c>
       <c r="D19" t="n">
-        <v>1.138156825111053</v>
+        <v>1.130101487604429</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9995473387356552</v>
+        <v>0.9995828957559028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4117598812203986</v>
+        <v>0.4077610620221601</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0564550387670237</v>
+        <v>0.0576350064607608</v>
       </c>
     </row>
     <row r="20">
@@ -2556,22 +2605,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.659538991418834</v>
+        <v>2.677651384289962</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6690658382187584</v>
+        <v>0.6723324855613863</v>
       </c>
       <c r="D20" t="n">
-        <v>2.138481460091024</v>
+        <v>2.153772709447609</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04697417481104302</v>
+        <v>0.04632008559172481</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1851006320433469</v>
+        <v>0.1833150315806173</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004282864703877901</v>
+        <v>0.0003831649411739411</v>
       </c>
     </row>
     <row r="21">
@@ -2581,22 +2630,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.17100214025573</v>
+        <v>2.186122767396482</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2616969787538094</v>
+        <v>0.2914079384296897</v>
       </c>
       <c r="D21" t="n">
-        <v>1.31836628062812</v>
+        <v>1.347036172602423</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03843230054583237</v>
+        <v>0.03751904846155732</v>
       </c>
       <c r="F21" t="n">
-        <v>0.634220430032547</v>
+        <v>0.5963552787276838</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03276664660542318</v>
+        <v>0.02944065635374141</v>
       </c>
     </row>
     <row r="22">
@@ -2606,22 +2655,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4551428809303421</v>
+        <v>0.4420998641286267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6956526222964493</v>
+        <v>0.6831641371495583</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8725478883774872</v>
+        <v>0.8693219271954068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5903023998964649</v>
+        <v>0.6025051521130455</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00424156401527733</v>
+        <v>0.005007593580685488</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01879002657855074</v>
+        <v>0.01912544987030462</v>
       </c>
     </row>
     <row r="23">
@@ -2631,22 +2680,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.4272823716292</v>
+        <v>12.0831866520192</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8219808371122126</v>
+        <v>0.8048517653374259</v>
       </c>
       <c r="D23" t="n">
-        <v>16.09325963173015</v>
+        <v>19.39527022765416</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999963860978373</v>
+        <v>0.9976927804225469</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3062220715962168</v>
+        <v>0.3216241952477592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.99556076108195</v>
+        <v>0.9989899035455896</v>
       </c>
     </row>
     <row r="24">
@@ -2656,22 +2705,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.241665648058</v>
+        <v>11.88287896910966</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207138179272457</v>
+        <v>0.1923616819812624</v>
       </c>
       <c r="D24" t="n">
-        <v>13.75161381062873</v>
+        <v>17.03683939519128</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999996390441606</v>
+        <v>0.9977310279922053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8046301151776272</v>
+        <v>0.8201560501967383</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9962066862015871</v>
+        <v>0.9991127294483887</v>
       </c>
     </row>
     <row r="25">
@@ -2681,22 +2730,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-10.14484151865899</v>
+        <v>-9.550474558522977</v>
       </c>
       <c r="C25" t="n">
-        <v>1.253426003403304</v>
+        <v>1.169675798582492</v>
       </c>
       <c r="D25" t="n">
-        <v>16.2284833500547</v>
+        <v>19.48708459099679</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.9999473920279121</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1302299632372427</v>
+        <v>0.1621643795040691</v>
       </c>
       <c r="G25" t="n">
-        <v>0.995523460770452</v>
+        <v>0.9989851219000178</v>
       </c>
     </row>
     <row r="26">
@@ -2706,22 +2755,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>156.6345470855987</v>
+        <v>14.3201881888366</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7242181002230149</v>
+        <v>0.7031346102757996</v>
       </c>
       <c r="D26" t="n">
-        <v>15.90930520117326</v>
+        <v>19.21377198566154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999963344433696</v>
+        <v>0.9972656383966901</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3341545473666916</v>
+        <v>0.3543621568547111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9956115033786026</v>
+        <v>0.9989993558825674</v>
       </c>
     </row>
     <row r="27">
@@ -2731,22 +2780,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156.7829849290371</v>
+        <v>14.46942176401193</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6610541573839829</v>
+        <v>0.6457373147032642</v>
       </c>
       <c r="D27" t="n">
-        <v>15.84005804138787</v>
+        <v>19.15273226217684</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9999963309697897</v>
+        <v>0.9972371431781094</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3827315373229069</v>
+        <v>0.3995252392486844</v>
       </c>
       <c r="G27" t="n">
-        <v>0.995630604654778</v>
+        <v>0.9990025348007869</v>
       </c>
     </row>
     <row r="28">
@@ -2756,22 +2805,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.534495458573479</v>
+        <v>-1.538744445044801</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1423610566108341</v>
+        <v>0.1589799394196729</v>
       </c>
       <c r="D28" t="n">
-        <v>0.357728206243593</v>
+        <v>0.3694521333438943</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000987547925504944</v>
+        <v>0.0009717147573753438</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2591776827978919</v>
+        <v>0.2092425586048501</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03456338659938597</v>
+        <v>0.02934444073199919</v>
       </c>
     </row>
     <row r="29">
@@ -2781,22 +2830,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.009710441268723162</v>
+        <v>-0.009272241912716995</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.008552989369315152</v>
+        <v>-0.007962285798850804</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004645070170863664</v>
+        <v>-0.004358313617061563</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5856068071261914</v>
+        <v>0.6024766895636551</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2007471142372198</v>
+        <v>0.2342889189266499</v>
       </c>
       <c r="G29" t="n">
-        <v>0.595258705453324</v>
+        <v>0.6179128457500429</v>
       </c>
     </row>
     <row r="30">
@@ -2806,22 +2855,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0005089822314378132</v>
+        <v>-0.000509150172343598</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001566492090130287</v>
+        <v>-0.001561101975361389</v>
       </c>
       <c r="D30" t="n">
-        <v>6.906041794258994e-05</v>
+        <v>6.843602533248514e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001216571970770794</v>
+        <v>0.0001194095233269323</v>
       </c>
       <c r="F30" t="n">
-        <v>3.519630292433307e-102</v>
+        <v>2.131804821321983e-101</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02336623865630047</v>
+        <v>0.02499421947444001</v>
       </c>
     </row>
     <row r="31">
@@ -2831,22 +2880,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.741330279755577</v>
+        <v>-2.766454038619898</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.408203918081663</v>
+        <v>-2.424452857431451</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.201478096105798</v>
+        <v>-3.206236833232571</v>
       </c>
       <c r="E31" t="n">
-        <v>2.108587123983801e-06</v>
+        <v>1.66633968682749e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>2.920253264274649e-22</v>
+        <v>1.387742619835795e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.142552523247626e-34</v>
+        <v>1.83922562241268e-34</v>
       </c>
     </row>
     <row r="32">
@@ -2856,22 +2905,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3038516814631428</v>
+        <v>0.2971590013422572</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0922509335239334</v>
+        <v>0.08747597937113566</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1250759838727242</v>
+        <v>0.1189342372156398</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04159666451738964</v>
+        <v>0.04643379734478609</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06430174026027254</v>
+        <v>0.07989957538306947</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05276445192592662</v>
+        <v>0.06599273039393119</v>
       </c>
     </row>
     <row r="33">
@@ -2881,22 +2930,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.453007906155397e-05</v>
+        <v>-0.0006647134655218601</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.371793915252618e-06</v>
+        <v>-0.002976820621305011</v>
       </c>
       <c r="D33" t="n">
-        <v>6.658269752611268e-05</v>
+        <v>0.003957856078471019</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8774083433480372</v>
+        <v>0.9447690756574764</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7705260652913819</v>
+        <v>0.3678571527434328</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09363760361098161</v>
+        <v>0.3550144795011509</v>
       </c>
     </row>
     <row r="34">
@@ -2906,22 +2955,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3416140492425411</v>
+        <v>0.394080636838572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04317790032976302</v>
+        <v>0.148616177008714</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2129814461353354</v>
+        <v>-0.1687620637456909</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2676904717775501</v>
+        <v>0.2175390982628024</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6722284874098656</v>
+        <v>0.172661572361357</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08932656001263539</v>
+        <v>0.1926322364608203</v>
       </c>
     </row>
     <row r="35">
@@ -2931,22 +2980,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2500081083596117</v>
+        <v>0.2782884883493006</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.3730821638559912</v>
+        <v>-0.3878831565651764</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2635723931680274</v>
+        <v>0.1678954595222901</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5458660949592169</v>
+        <v>0.523258649019688</v>
       </c>
       <c r="F35" t="n">
-        <v>0.004679772207488312</v>
+        <v>0.00452390834837254</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09503773506136168</v>
+        <v>0.3395412742895734</v>
       </c>
     </row>
     <row r="36">
@@ -2956,147 +3005,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.452451038452377e-08</v>
+        <v>0.08171387476988018</v>
       </c>
       <c r="C36" t="n">
-        <v>1.746694755920157e-07</v>
+        <v>0.204314933858058</v>
       </c>
       <c r="D36" t="n">
-        <v>7.678004949267197e-08</v>
+        <v>0.1164437124506859</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4376510127526496</v>
+        <v>0.5035329427342035</v>
       </c>
       <c r="F36" t="n">
-        <v>9.537015533272343e-05</v>
+        <v>2.758135290650623e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2017046779291598</v>
+        <v>0.08321468167914245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.005891321534895086</v>
+        <v>-0.00179669341180606</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.000133108011126511</v>
+        <v>-0.009434755816371886</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.008515370889592524</v>
+        <v>-0.009467222955195812</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7248678205540164</v>
+        <v>0.9109808146923825</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9824508426654335</v>
+        <v>0.1120443612777857</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2001104668321267</v>
+        <v>0.2313470202713133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14.26106575097186</v>
+        <v>-0.01073103517038051</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.539101587784316</v>
+        <v>-0.01230281319013357</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.318090888320731</v>
+        <v>-0.01487192989694791</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2341515215804045</v>
+        <v>0.6040927659149211</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3702716477773585</v>
+        <v>0.1666638458982895</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3367181819351779</v>
+        <v>0.1032928482531532</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.953884128175598</v>
+        <v>0.1497696208512985</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5374240851311254</v>
+        <v>-0.07853244312821363</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2498807440080948</v>
+        <v>-0.1017129948911639</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3623924930376287</v>
+        <v>0.2256833755144513</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4141238325213284</v>
+        <v>0.137574082263662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7757080007602075</v>
+        <v>0.197889576603702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.7578845716139322</v>
+        <v>0.02277720046348693</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.159908286125558</v>
+        <v>-0.004095792202323815</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6295417086306073</v>
+        <v>0.001390514525925822</v>
       </c>
       <c r="E40" t="n">
-        <v>0.740970099371037</v>
+        <v>0.2662037208427022</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1409844576513675</v>
+        <v>0.5150303865495298</v>
       </c>
       <c r="G40" t="n">
-        <v>0.558047044145108</v>
+        <v>0.8662452166756471</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.006234671576988085</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.01470293280039476</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0006059679607605019</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7870564915765852</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.07256124197017956</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.957159306786358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.0005153335440691408</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0003882194097331943</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.802922515799038e-06</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.4436362534415519</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1208719304890774</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.9937016702427423</v>
+      <c r="B42" t="n">
+        <v>0.04751838561573885</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.08671489272703412</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.04842533405617699</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6030389088816916</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0099245639425169</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3172310700526274</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3613,7 +3687,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3626,7 +3700,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3639,7 +3713,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3652,7 +3726,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3665,7 +3739,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3674,6 +3748,19 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3686,7 +3773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,22 +3825,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.26128259098846</v>
+        <v>-11.14129530316265</v>
       </c>
       <c r="C2" t="n">
-        <v>2.008307428257681</v>
+        <v>3.690403115718004</v>
       </c>
       <c r="D2" t="n">
-        <v>-20.61915554594107</v>
+        <v>-22.11994678760649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9876987949870277</v>
+        <v>0.9876045156854222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06752115598800019</v>
+        <v>0.01616436949002335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9984753034218374</v>
+        <v>0.9995748620200794</v>
       </c>
     </row>
     <row r="3">
@@ -3763,22 +3850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0255728416697838</v>
+        <v>0.01913266393262818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2260055130550749</v>
+        <v>0.2340951041512065</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6423500409163495</v>
+        <v>-0.6395752479049041</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9608071609009209</v>
+        <v>0.9692814444906968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1496894766892123</v>
+        <v>0.1363053156857079</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005343690517176458</v>
+        <v>0.005571778930340316</v>
       </c>
     </row>
     <row r="4">
@@ -3788,22 +3875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.00665723929968</v>
+        <v>-9.628012647743819</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7495980613329618</v>
+        <v>-0.7570861298378619</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.421929417273049</v>
+        <v>-2.433242381758844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.996740473173503</v>
+        <v>0.9267850106480745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07657412736736213</v>
+        <v>0.07496267511879322</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009832084076018517</v>
+        <v>0.009858014280694289</v>
       </c>
     </row>
     <row r="5">
@@ -3813,22 +3900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1728180522606711</v>
+        <v>0.21097292653709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3812566700707016</v>
+        <v>0.3878165170773339</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01686911238829984</v>
+        <v>-0.01705902985587041</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8051016331044816</v>
+        <v>0.7500851790418883</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03259088937941788</v>
+        <v>0.03000645615644359</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438825614884446</v>
+        <v>0.9433311359709579</v>
       </c>
     </row>
     <row r="6">
@@ -3838,22 +3925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.111243091280226</v>
+        <v>1.086313405035607</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5551723766175941</v>
+        <v>-0.5378274074782556</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.92985270433722</v>
+        <v>-14.67140123959531</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1916845677310572</v>
+        <v>0.1927347832904214</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316528940088151</v>
+        <v>0.3322549649040311</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9953627681677497</v>
+        <v>0.9806833773315928</v>
       </c>
     </row>
     <row r="7">
@@ -3863,22 +3950,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9429128705863802</v>
+        <v>0.916892909944137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1398655771097236</v>
+        <v>0.1413962935660132</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6141183179168606</v>
+        <v>-0.604601973825731</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07311231493125024</v>
+        <v>0.06741245236942814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4764793759674402</v>
+        <v>0.4724910029723244</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05608770318100867</v>
+        <v>0.06019659344313148</v>
       </c>
     </row>
     <row r="8">
@@ -3888,22 +3975,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.682267423331963</v>
+        <v>1.639268458154607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8410813366090982</v>
+        <v>0.883924091272079</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07317793167598061</v>
+        <v>-0.0465988244610441</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03767403139429579</v>
+        <v>0.03296684566921156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01236948064912681</v>
+        <v>0.008746781175603199</v>
       </c>
       <c r="G8" t="n">
-        <v>0.859781739838012</v>
+        <v>0.9108133333067898</v>
       </c>
     </row>
     <row r="9">
@@ -3913,22 +4000,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3939107267891611</v>
+        <v>0.330867265413136</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1902776948746925</v>
+        <v>-0.1832931561102498</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01351519551498769</v>
+        <v>-0.00738262447362596</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3939487485230012</v>
+        <v>0.4503491780191611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1375071958166268</v>
+        <v>0.1535525625637169</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9396806464052099</v>
+        <v>0.9670943819906352</v>
       </c>
     </row>
     <row r="10">
@@ -3938,22 +4025,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.182426171191123</v>
+        <v>1.275239620667288</v>
       </c>
       <c r="C10" t="n">
-        <v>1.213221135955394</v>
+        <v>1.201164603564905</v>
       </c>
       <c r="D10" t="n">
-        <v>1.452919229222926</v>
+        <v>1.449479952276569</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04671876513287842</v>
+        <v>0.08971057862271319</v>
       </c>
       <c r="F10" t="n">
-        <v>5.934390102716705e-09</v>
+        <v>8.911833832110603e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>5.816506501248317e-05</v>
+        <v>6.291207134169097e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3963,22 +4050,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.226332314434795</v>
+        <v>0.3951223440565447</v>
       </c>
       <c r="C11" t="n">
-        <v>1.17309516776271</v>
+        <v>1.161791304090779</v>
       </c>
       <c r="D11" t="n">
-        <v>1.67488356129634</v>
+        <v>1.673137328185834</v>
       </c>
       <c r="E11" t="n">
-        <v>0.41134049755159</v>
+        <v>0.7484107406552196</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004793051586216256</v>
+        <v>0.0005602654614524778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002417436193335081</v>
+        <v>0.0002562735590759217</v>
       </c>
     </row>
     <row r="12">
@@ -3988,22 +4075,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.498079224687717</v>
+        <v>1.532093379697981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7604967064026787</v>
+        <v>0.7474854633354939</v>
       </c>
       <c r="D12" t="n">
-        <v>1.608678510256047</v>
+        <v>1.59452240473986</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02689960770289153</v>
+        <v>0.05213710092609663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005626927198817802</v>
+        <v>0.0006997824393123359</v>
       </c>
       <c r="G12" t="n">
-        <v>3.040456419362669e-05</v>
+        <v>3.709099178798531e-05</v>
       </c>
     </row>
     <row r="13">
@@ -4013,22 +4100,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.039966450851409</v>
+        <v>2.194804932465634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4776494740510529</v>
+        <v>0.4760564448791337</v>
       </c>
       <c r="D13" t="n">
-        <v>1.805491492356572</v>
+        <v>1.80617451929532</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006880035243923467</v>
+        <v>0.005948257160226256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05247733841968282</v>
+        <v>0.05387539548126507</v>
       </c>
       <c r="G13" t="n">
-        <v>2.537903645557385e-05</v>
+        <v>2.571988622413285e-05</v>
       </c>
     </row>
     <row r="14">
@@ -4038,22 +4125,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.655173451653083</v>
+        <v>-0.1876306157659846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1414103038774713</v>
+        <v>0.136512289122304</v>
       </c>
       <c r="D14" t="n">
-        <v>1.82639155187849</v>
+        <v>1.827338118869461</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6565455124582392</v>
+        <v>0.8764208357421629</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6132926163681371</v>
+        <v>0.6263940260526408</v>
       </c>
       <c r="G14" t="n">
-        <v>2.889294428598303e-06</v>
+        <v>2.986888174588105e-06</v>
       </c>
     </row>
     <row r="15">
@@ -4063,22 +4150,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.948996258390292</v>
+        <v>0.9760655108500316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3900155825322737</v>
+        <v>0.386742478313027</v>
       </c>
       <c r="D15" t="n">
-        <v>1.034468749338524</v>
+        <v>1.037384656029652</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1277174020606507</v>
+        <v>0.1061734193348131</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1301165808594521</v>
+        <v>0.1338529510970008</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004747796292520512</v>
+        <v>0.004539525744187493</v>
       </c>
     </row>
     <row r="16">
@@ -4088,22 +4175,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.29791134174792</v>
+        <v>1.06053200660568</v>
       </c>
       <c r="C16" t="n">
-        <v>1.456280887307502</v>
+        <v>1.430575743078731</v>
       </c>
       <c r="D16" t="n">
-        <v>1.420695454778143</v>
+        <v>1.406876677535674</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9981236338205335</v>
+        <v>0.3768582029989911</v>
       </c>
       <c r="F16" t="n">
-        <v>3.847211366859375e-08</v>
+        <v>7.043038834814569e-08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001878172478874926</v>
+        <v>0.00209176627771386</v>
       </c>
     </row>
     <row r="17">
@@ -4113,22 +4200,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-63.47649711564174</v>
+        <v>-37.86041286797342</v>
       </c>
       <c r="C17" t="n">
-        <v>1.00194986775463</v>
+        <v>0.9659167771428021</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2901489670117068</v>
+        <v>-0.2747111708769195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999996052</v>
+        <v>0.9999999050231535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01203957254479956</v>
+        <v>0.01575957636520175</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7069533858966133</v>
+        <v>0.7211772955137877</v>
       </c>
     </row>
     <row r="18">
@@ -4138,22 +4225,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.602954867783245</v>
+        <v>2.640509255176593</v>
       </c>
       <c r="C18" t="n">
-        <v>1.28956596603218</v>
+        <v>1.27587934369325</v>
       </c>
       <c r="D18" t="n">
-        <v>1.01518687193304</v>
+        <v>1.01447454089313</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001942619716238811</v>
+        <v>0.001121480477146029</v>
       </c>
       <c r="F18" t="n">
-        <v>5.23542345932193e-06</v>
+        <v>6.791652312455536e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02778012510106374</v>
+        <v>0.02788166368140801</v>
       </c>
     </row>
     <row r="19">
@@ -4163,22 +4250,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-32.5815841675407</v>
+        <v>-32.88252608421488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5220739123134371</v>
+        <v>0.5135068861578084</v>
       </c>
       <c r="D19" t="n">
-        <v>1.856966592249698</v>
+        <v>1.838688505803021</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999984978744273</v>
+        <v>0.999998620119339</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2752918742343206</v>
+        <v>0.2813466217439543</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002028986459147775</v>
+        <v>0.002214509268458035</v>
       </c>
     </row>
     <row r="20">
@@ -4188,22 +4275,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.54476813047513</v>
+        <v>2.435694189812405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7763726529587279</v>
+        <v>0.7843999996484308</v>
       </c>
       <c r="D20" t="n">
-        <v>2.889321271600841</v>
+        <v>2.905518054519547</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05486952191012901</v>
+        <v>0.05978214170875627</v>
       </c>
       <c r="F20" t="n">
-        <v>0.116523166286916</v>
+        <v>0.1132516188430016</v>
       </c>
       <c r="G20" t="n">
-        <v>2.198704138696313e-06</v>
+        <v>1.9457290986317e-06</v>
       </c>
     </row>
     <row r="21">
@@ -4213,22 +4300,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.086421445304484</v>
+        <v>2.034776884210275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236871123487075</v>
+        <v>0.2646419742908661</v>
       </c>
       <c r="D21" t="n">
-        <v>1.755180163535649</v>
+        <v>1.763487830337014</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05161408369747141</v>
+        <v>0.0503984300039468</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6702206353934446</v>
+        <v>0.6333233627581709</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005816524290158928</v>
+        <v>0.005591303100261501</v>
       </c>
     </row>
     <row r="22">
@@ -4238,22 +4325,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5424301656214771</v>
+        <v>0.4609480215728968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5212555807892135</v>
+        <v>0.5007112649075872</v>
       </c>
       <c r="D22" t="n">
-        <v>1.303649173261766</v>
+        <v>1.293492024931663</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5108038059123006</v>
+        <v>0.5570853152826374</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0318431872367059</v>
+        <v>0.03919715265367317</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001088889541935179</v>
+        <v>0.001171032401547709</v>
       </c>
     </row>
     <row r="23">
@@ -4263,22 +4350,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.950168384150507</v>
+        <v>9.314562848826515</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5962828214121888</v>
+        <v>0.5612919224126635</v>
       </c>
       <c r="D23" t="n">
-        <v>18.5702165522448</v>
+        <v>21.23644193633524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9922797423819175</v>
+        <v>0.9896366510867356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.40509036341822</v>
+        <v>0.4365500217215296</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9986268133544945</v>
+        <v>0.9995918426860055</v>
       </c>
     </row>
     <row r="24">
@@ -4288,22 +4375,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.851011396098674</v>
+        <v>7.927790528002176</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02851197808139967</v>
+        <v>-0.05696638211139222</v>
       </c>
       <c r="D24" t="n">
-        <v>15.88270920519571</v>
+        <v>18.53693176820341</v>
       </c>
       <c r="E24" t="n">
-        <v>0.993227833390362</v>
+        <v>0.9911795069608038</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9699462536105861</v>
+        <v>0.9404094596503669</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9988255426642978</v>
+        <v>0.9996437263652168</v>
       </c>
     </row>
     <row r="25">
@@ -4313,22 +4400,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.647032029876613</v>
+        <v>-7.760773142075104</v>
       </c>
       <c r="C25" t="n">
-        <v>1.096481882582806</v>
+        <v>1.000884083156408</v>
       </c>
       <c r="D25" t="n">
-        <v>18.44303741774653</v>
+        <v>21.06809448850031</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994525436722679</v>
+        <v>0.9995903425686465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1518508022227193</v>
+        <v>0.1936823659732392</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9986362176896049</v>
+        <v>0.9995950782674127</v>
       </c>
     </row>
     <row r="26">
@@ -4338,22 +4425,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.40387110309279</v>
+        <v>11.4148164519752</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4472489911696227</v>
+        <v>0.4181650906383252</v>
       </c>
       <c r="D26" t="n">
-        <v>18.41928644466524</v>
+        <v>21.08827281409775</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9901633078082688</v>
+        <v>0.9873000791508921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5005191683106771</v>
+        <v>0.5321181513298561</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9986379739672292</v>
+        <v>0.99959469044674</v>
       </c>
     </row>
     <row r="27">
@@ -4363,22 +4450,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.60424699506137</v>
+        <v>11.59894270326963</v>
       </c>
       <c r="C27" t="n">
-        <v>0.580303199765413</v>
+        <v>0.5514365831209889</v>
       </c>
       <c r="D27" t="n">
-        <v>18.50175303793696</v>
+        <v>21.17355245603474</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9899904779008288</v>
+        <v>0.9870952420112339</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3875548748719362</v>
+        <v>0.4152518446124005</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9986318759278673</v>
+        <v>0.9995930514006779</v>
       </c>
     </row>
     <row r="28">
@@ -4388,22 +4475,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.465724672006995</v>
+        <v>-1.413800517944782</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1211630338658389</v>
+        <v>0.1316164054386539</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4565937971348755</v>
+        <v>0.4622361868560264</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001701425982382001</v>
+        <v>0.00146228567760938</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3328605907227373</v>
+        <v>0.2938049982152927</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007679082758061563</v>
+        <v>0.007001913541350276</v>
       </c>
     </row>
     <row r="29">
@@ -4413,22 +4500,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.01935106380886287</v>
+        <v>-0.01987348615817779</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006797821127928697</v>
+        <v>-0.006530027425120525</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0004257383492913682</v>
+        <v>-0.0002916140668441596</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2860591962313186</v>
+        <v>0.2554466866445907</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3079095867208304</v>
+        <v>0.3277446986586634</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9608245168282141</v>
+        <v>0.9731622386212881</v>
       </c>
     </row>
     <row r="30">
@@ -4438,22 +4525,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0004785015196936819</v>
+        <v>-0.0004748293206681109</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001523722126346913</v>
+        <v>-0.001518699121633318</v>
       </c>
       <c r="D30" t="n">
-        <v>9.083930654946302e-05</v>
+        <v>9.169963991878145e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003055832357166822</v>
+        <v>0.0001864853450650998</v>
       </c>
       <c r="F30" t="n">
-        <v>3.214390372589338e-101</v>
+        <v>1.874385365072146e-100</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002872150406219563</v>
+        <v>0.002738645058262739</v>
       </c>
     </row>
     <row r="31">
@@ -4463,22 +4550,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.347154480875064</v>
+        <v>-2.359592834827495</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.341829693952227</v>
+        <v>-2.348785354040817</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.200077652932735</v>
+        <v>-3.198314509546519</v>
       </c>
       <c r="E31" t="n">
-        <v>2.087555427648963e-05</v>
+        <v>1.050044033547496e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>1.68519656134831e-22</v>
+        <v>1.069008171344214e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>1.534467185131977e-34</v>
+        <v>1.595306607379203e-34</v>
       </c>
     </row>
     <row r="32">
@@ -4488,22 +4575,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3507406537236187</v>
+        <v>0.3253152079257002</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07421542933501632</v>
+        <v>0.06968312517613588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1367007764813817</v>
+        <v>0.1323786734152816</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01978484383458008</v>
+        <v>0.02630892441228055</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1429619116563513</v>
+        <v>0.1700909557462931</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03846773830670023</v>
+        <v>0.04519078933838835</v>
       </c>
     </row>
     <row r="33">
@@ -4513,22 +4600,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.278387506764903e-05</v>
+        <v>-0.003885284956148235</v>
       </c>
       <c r="C33" t="n">
-        <v>2.84732790902523e-05</v>
+        <v>0.000602096809208013</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001165320965320761</v>
+        <v>0.009476240054151071</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8075824506271542</v>
+        <v>0.6796330009105596</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3713633353614393</v>
+        <v>0.8544750970053581</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00379233705699641</v>
+        <v>0.02992295006830356</v>
       </c>
     </row>
     <row r="34">
@@ -4538,22 +4625,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1893361057362792</v>
+        <v>0.2373804055996181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2269569683591365</v>
+        <v>0.3269001067829762</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2255813937484965</v>
+        <v>-0.2228696058748059</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5553098635780029</v>
+        <v>0.4582032429399219</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02615609672973628</v>
+        <v>0.00292171812619387</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07053764812495462</v>
+        <v>0.08122079359913503</v>
       </c>
     </row>
     <row r="35">
@@ -4563,22 +4650,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1063228091873353</v>
+        <v>0.005651940979099983</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1959804909969743</v>
+        <v>-0.2272732010377826</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3128599486243152</v>
+        <v>0.2086565686749691</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7955005393098327</v>
+        <v>0.9890454806385039</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1302444066692277</v>
+        <v>0.09184362518462931</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04745032758337522</v>
+        <v>0.2413349836814247</v>
       </c>
     </row>
     <row r="36">
@@ -4588,147 +4675,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.471746279246201e-07</v>
+        <v>0.2027210750364491</v>
       </c>
       <c r="C36" t="n">
-        <v>1.41577636931754e-07</v>
+        <v>0.1760903086938415</v>
       </c>
       <c r="D36" t="n">
-        <v>1.211195322061145e-08</v>
+        <v>0.05190236721410502</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1606786053789215</v>
+        <v>0.09546556490577182</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001001664627206953</v>
+        <v>0.0002059730612885051</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8427060211196089</v>
+        <v>0.4485508828108689</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.007725348618524301</v>
+        <v>-0.01501263598598616</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.005179078398512105</v>
+        <v>-0.01024802079709447</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01485928414900245</v>
+        <v>-0.008449161141955224</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6286528327705458</v>
+        <v>0.3754752264128415</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3801819642153064</v>
+        <v>0.08591977044420919</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03198847087287404</v>
+        <v>0.2899962278293144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.447738876958349</v>
+        <v>-0.02074526803650573</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.903740398504698</v>
+        <v>-0.01740873941035902</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.158207900666529</v>
+        <v>-0.01880506447299525</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5402027669571674</v>
+        <v>0.3437830688905411</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1759447900561939</v>
+        <v>0.04707932960794765</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6643537647485371</v>
+        <v>0.04050742182880314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5039027969708051</v>
+        <v>0.05839553927821688</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3468077744592953</v>
+        <v>-0.1055869059074436</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1660484502691886</v>
+        <v>-0.05216745597415236</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8061784253690442</v>
+        <v>0.6358918613911742</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5903137217418439</v>
+        <v>0.04722688282571444</v>
       </c>
       <c r="G39" t="n">
-        <v>0.851448875837587</v>
+        <v>0.4881323007719587</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.975651165144372</v>
+        <v>0.009839072565527979</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1042465341884785</v>
+        <v>-0.002790151439963513</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04391807899895</v>
+        <v>-0.0009687885139073626</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3882465125200764</v>
+        <v>0.6028853836752173</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8925952142093081</v>
+        <v>0.6508211020183423</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3354105686825011</v>
+        <v>0.9069385663656416</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.02318645184434039</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.004897247030828849</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.003919414170768864</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3047090288865445</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5429381933808026</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7296027711996526</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.0002703273463397237</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.000272329937520728</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.0003807528704347319</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.6819574971555316</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.272811848518812</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2878405743324671</v>
+      <c r="B42" t="n">
+        <v>0.05353499498857285</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.07661753318344165</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.006211177074142907</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.541156177530231</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.020770010741665</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.899340098720392</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,12 +4905,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-17.87473714276273</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.656311923170334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-15.29021479951283</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9952002392613499</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08367793749937721</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9910609842638329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4806,12 +4930,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.004053199373445972</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2989471478043438</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.4121079550230567</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9939546847498214</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06087006884555323</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07497282710029884</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4819,12 +4955,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-20.25974772821933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.7195206758123007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.033275544051302</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9992719281217785</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08098196169356571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01010413750095521</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4832,12 +4980,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.1777031061970156</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3870677406191873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.03877750195642631</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8010363591508542</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03371560599211144</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8777580554062329</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4845,12 +5005,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.448600012687561</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.00264364815052625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-37.4646980448897</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09526444295365734</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9962865048834172</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9999995221535928</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4858,12 +5030,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>1.208556634785214</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2221519361471954</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.7802374277459762</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02018134519114004</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2681022816197474</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0195934128928177</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4871,12 +5055,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.928101085451042</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6216324635846969</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01221240672407686</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01988912114225475</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06884864520559666</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9765823420597965</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4884,12 +5080,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.6062099710110623</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1607824916074162</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05887078693691383</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2198562354835897</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.216064227568335</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7495176264432011</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4897,12 +5105,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.357847626113494</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.394736184306638</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.075286389473854</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03139929788829146</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.214561235369415e-11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.30700710285144e-07</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4910,12 +5130,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1.258517294380024</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.169216258054128</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.034167828269431</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3969254209312199</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0007617710320382147</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.558555761982457e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4923,12 +5155,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.401541059690271</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8082122700690132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.902792993830006</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03500650675337699</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0003314281223599392</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.992046820521451e-06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4936,12 +5180,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>3.555892577456235</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6557308678444804</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.919437775037184</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001859921463602297</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00885649116919985</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.972724669642432e-05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4949,12 +5205,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.7911306733872367</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2364050773955432</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.14123309616924</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5900506338138578</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3931602248115258</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.560775264352447e-07</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4962,12 +5230,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.9800712601031787</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1212420028524238</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9713423730225965</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1184299238602957</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.63935557092891</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.007765621100411443</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4975,12 +5255,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-20.37159782353673</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.44185854023752</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.043398550895408</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9997142623246768</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.906472622007563e-08</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02719981318207525</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4988,12 +5280,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-17.96042086506208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6750917409752014</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.3826974934183346</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9992940566672294</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09201621081027514</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6170958267112316</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5001,12 +5305,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.87143777922125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.252111752015545</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.104069006645056</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0008089662106137203</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.511380827838895e-06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01738889795796179</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5014,12 +5330,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-20.33591871949784</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3831731529286591</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.46381649268728</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9996467736898493</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4216845644351487</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0143977979997254</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5027,12 +5355,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2.984057059467465</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8094840657271553</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.679681467928612</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02714991148121767</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1090345436180051</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.514944331262004e-05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5040,12 +5380,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>3.191663112543584</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4549164218512666</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.78112702220231</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003129839736201855</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4576452026780442</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.007275896259710309</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5053,12 +5405,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.8245631281195975</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5786768072007028</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9081554788183956</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3335631900823277</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01678109347097911</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02179266585363977</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5066,12 +5430,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>11.02553082265354</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7156937296785698</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.97217735941782</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.99703938905269</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3203581833507408</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9918315051240385</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5079,12 +5455,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>9.887826300860301</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.03320941728475633</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.46082923387565</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9973448880094886</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9652469800032817</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9932996658462343</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5092,12 +5480,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>8.289187669959345</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7117535860055059</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.31321778430332</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9977741823338344</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3456529295071638</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.991632131544536</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5105,12 +5505,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>13.42697780092952</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6164816732915397</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.26882586300718</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9963945484595415</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.354659420045542</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9916580827577426</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5118,12 +5530,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>13.73498371963062</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6224390183125065</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.24580112502326</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9963118423950139</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3558576825516523</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9916715431978921</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5131,12 +5555,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-1.130359518853917</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1405013309976278</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5544944916536602</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.008153021060053934</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.267824707666235</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001524085969119034</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5144,12 +5580,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>-0.01113846051659233</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.004670880746631762</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.007778487443319146</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5394927634620341</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4874619779336627</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3826788856379307</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5157,12 +5605,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>-0.000543777358907824</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001616292211875385</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.694526467931528e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0001111707910532289</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.466122852432614e-103</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03192646662669217</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5170,12 +5630,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>-2.300863828672603</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.320800801342863</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.253851353693914</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.439984563049038e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.325221486889477e-21</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.541279412862268e-34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5183,12 +5655,24 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.4823619157638477</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1149636769964548</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1438504168435382</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001592698197980031</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0224836882699564</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03312651992283707</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5196,12 +5680,24 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>-0.005064191691127202</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.0007812717504130789</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.006876007883156175</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6161369504393235</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8156143762847161</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1182282231772435</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5209,12 +5705,24 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>0.28956229005895</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.316044233256715</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1389226277357233</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3917945239575691</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.004193318600124186</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2895637204508544</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5222,12 +5730,24 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>0.1361216970519319</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.2072003534513933</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2539751319076213</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7663794689747583</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1279087750979275</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1574273148308254</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5235,77 +5755,174 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0.1266352989950491</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1716316735483321</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1160630712465309</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3193388784379333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0003852663907294062</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.09249125827737148</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.002958011763425676</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.007220441077382178</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.01261027980337553</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8653103955685604</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2209448817370354</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1192242720105192</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.01541628360189268</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01345585481520197</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.02015483562399325</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5067875910452733</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1175929294835066</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0278920702964005</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1304328260185314</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1062326351794102</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.05901251067258311</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2640137178689784</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.04367035812313631</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.4383988693046786</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01217199524443689</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.002561835122061142</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.0019630890756958</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5603758032283335</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6937635636580379</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.8156343075001743</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.01712995027971587</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.006504068504198702</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.623260954731417e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4665618328689868</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4320791476620316</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9988740399364437</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0.08038126452304468</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.100049764518609</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02327222136377919</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3854785561363719</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.003116835619862978</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6412061108789084</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5318,7 +5935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5369,24 +5986,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-16.70419314394104</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.19191831535022</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-20.51638689163804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9934974331981689</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0496074537907679</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9987227371667863</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5394,24 +5999,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.08468845718499358</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2749922905458169</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.5198147224617153</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.869772967250645</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.08706843562553933</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0221223337574671</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5419,24 +6012,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-108.3475961919772</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6385687069047661</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.130290520475971</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1106179419019532</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01946324975507471</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5444,24 +6025,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.2161083884482263</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4557657354541966</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0921066571338393</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7290162812550434</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.01213680121561064</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7031771772176352</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5469,24 +6038,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.4610238054619735</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.2057706168883237</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-17.75814714305795</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6505254591286893</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7235434860722108</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9955068290072181</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5494,24 +6051,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.5734304523432369</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2571288774457178</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8212284715416169</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2900799768749226</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1912107418310948</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01128504866775826</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5519,24 +6064,12 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.552082998955554</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.059343262377456</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.2056961765352151</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04951793397377489</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00263527270871025</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.636530596100545</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5544,24 +6077,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.004555017974517102</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.2081610656615445</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.04303286519065178</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9915895754428586</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.115177515690884</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8114912043648975</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5569,24 +6090,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2.367700965571034</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.375412994503754</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.659419869502053</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0328937663581798</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.238774698845881e-11</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.396430242742417e-06</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5594,24 +6103,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.6057851321466143</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.214333469873927</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.726766729406927</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6736723087213283</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0002753526484845815</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001976465287511643</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5619,24 +6116,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.6987464694101</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8145006037339426</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.65196611314962</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01729450797950687</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0002867548799192633</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.031374177202691e-05</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5644,24 +6129,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3.35955118729176</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5269264045465466</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.394741089698322</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.002792156758072304</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.03530718241764806</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0008047909512761625</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5669,24 +6142,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-49.11097176349301</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2506396156653788</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.608043460732843</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9999999994643978</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3723186124533189</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.247160362013386e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5694,24 +6155,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.174210385300316</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2270578658408953</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.017692294303799</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.05212423466416812</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.3871728694597952</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.004481843403829612</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5719,24 +6168,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-5.135669975512219</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.656815797364595</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9941488349690484</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8493277301221133</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.47668894050023e-10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02488395887427429</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5744,24 +6181,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-26.28005847455166</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.164274162284238</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.4573262960414401</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9999803548995111</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.009012543226552889</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5618015384412988</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5769,24 +6194,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1.450742244361952</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.245864460404653</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7503028934754939</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.08065893915572248</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9.803795034035021e-06</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.08009657365813717</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5794,24 +6207,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-18.76403379001534</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5967682359641957</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.486433663977965</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9992829005000515</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2025592430444472</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.01068135492549149</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5819,24 +6220,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>3.157087900612494</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7542245049008078</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.460207590689484</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.02081683350187633</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1327423717274257</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.419417535535532e-05</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5844,24 +6233,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2.732677068726353</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1839916031384909</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.198901683432826</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01573622430599815</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7581927599659812</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.08895513172204234</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5869,24 +6246,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.6964596216996944</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5604313768970257</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9366377226424709</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.402167565194597</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.02114671717895334</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01207027141512345</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5894,24 +6259,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>10.49807444897525</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8885921209961979</v>
-      </c>
-      <c r="D23" t="n">
-        <v>18.9934547250034</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9959133062226876</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2379498582348187</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.998817548358046</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5919,24 +6272,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>10.34456649050801</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2816117182929265</v>
-      </c>
-      <c r="D24" t="n">
-        <v>16.25879375922496</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9959730633262219</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7224343671647709</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.998987796610546</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5944,24 +6285,12 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-7.14436338447392</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9447255362324242</v>
-      </c>
-      <c r="D25" t="n">
-        <v>19.11029022039338</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9997692038989344</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2260909891586818</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9988102746832155</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5969,24 +6298,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>12.66262978960255</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5342032682012579</v>
-      </c>
-      <c r="D26" t="n">
-        <v>18.87583662246343</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9950706961967569</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.4422373458659321</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9988248707547754</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5994,24 +6311,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>12.61977008214708</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.4703815764575677</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18.75452505889582</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9950873804329252</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5033738095913456</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9988324230911018</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6019,24 +6324,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-1.301223503645949</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.09259636187857638</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.2603935127198713</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.003711311257906162</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.4648004718809172</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1257189254531214</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6044,24 +6337,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.0006705917694893229</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.002036577572115559</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.001555290901274392</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9688152321958646</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.7620438770369066</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.856596648693598</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6069,24 +6350,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>-0.0004726605604530325</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.001523069067353097</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8.352566627855422e-05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0003589583794109202</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.896108113691599e-99</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.005756403317287404</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6094,24 +6363,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>-2.539838693676923</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-2.48450429444661</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-3.39438840735285</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6.873919556892773e-06</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.415228514086965e-22</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.692187438901993e-36</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6119,24 +6376,12 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.3332911612972058</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.09572190454121328</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1402853708586093</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0223727220909468</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.05662270097165481</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.03345970020845029</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6144,24 +6389,12 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>-5.263909217955211e-05</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8.855238725938048e-06</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9.243140916473924e-05</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5832770465600563</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7850068733011313</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.02132828018100434</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6169,24 +6402,12 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.3644867416566375</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1834540863594954</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.1831869621049875</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2493319394687146</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.08106426863856127</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.1495757345076874</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6194,24 +6415,12 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.1637863812465849</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.2581328513603522</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.2873269206070425</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.7024265084307695</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.05089963773904434</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.06851335118622331</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6219,149 +6428,90 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>1.314807232259183e-07</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.43822912176634e-07</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.964746808705245e-08</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.2194532704596999</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0009157583746811469</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.5106488084386316</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.01101905536675685</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.005565645910375749</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.01328621410474989</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5400747071843923</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.3625922938378494</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.04876253131614825</v>
-      </c>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>8.09601150904791</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-6.487469392755176</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-3.155584164683788</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.537282183677773</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.2029484211144079</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6646410858160439</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.434270313779953</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.6603656259654396</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.09571212281231382</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4909088128271671</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3221839837143955</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.9146425467557809</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.386843555652418</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.73780795061999</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.7715650626137706</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.8668452165785748</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3500845755065946</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.4773375015827124</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.0004547365932485077</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0004565743881448609</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.000169737359077193</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5044595713634944</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.06593942336389645</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.6325156230027038</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6374,7 +6524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6425,1062 +6575,6 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-14.34148117612147</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.172609404025324</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-15.8497099238694</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9847068644012748</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.04956047835784062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9909890395631309</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Daytime Off-Peak]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.05781324766338399</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2532661440677151</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.5127814466408754</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.908832542946542</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1032952657054215</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.02243137406690788</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Evening]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-18.58702746689349</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4727722568499406</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.602393773713179</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9985516370902846</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2466225936219936</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00636699661763357</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Lunch]</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3031106037310646</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3321660898274294</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.02507821569695779</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6272250150288834</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.05841936777286403</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9172720428406386</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.Nighttime Off-Peak]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6951825928829823</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.2934844765112855</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-17.84841938728951</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4869464295430598</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6115803943653636</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9959023542195069</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Trip_Time[T.PM Rush]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8721884347941855</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1624658478435656</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8956971010955606</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.09494674722817065</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4058708337079281</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.006677265249062381</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Season[T.Spring]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.496660262475513</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7352601109323575</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.2069683465361148</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06239236739915426</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.02978703057241604</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6147637368587584</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Season[T.Winter]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1582725774607785</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.1986387834810165</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.0931573106832934</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7182028311528872</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1209617620888467</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6010776624527105</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.362406253509769</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.456684868706187</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.63965635623026</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03150144124571308</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.373771203807902e-12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.552402093395659e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔School]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8782810626040285</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.503865465632454</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.714653204754564</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5557762857445494</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.134406610712604e-05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0002382006558448392</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.161615586289849</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.788169413909089</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.582429441905087</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.05920415445914309</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0003277777758345478</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.984599165260297e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.514170071433443</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6744281236332079</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.411629402350835</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.00174535894727863</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.005932226286715082</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0007057376054000604</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Trip_Purpose_Agg[T.Other]</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7236960635250863</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2702131958524354</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.667959909966791</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6208492005448869</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3177884439306629</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.524654518485898e-05</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Occupation[T.Employed_PartTime]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.047681555304363</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3664077326866705</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9880954254805407</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.08377932884529626</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1447135916614115</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.006173234678058209</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Occupation[T.Home_Partner]</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-14.98595062092645</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.611441340981831</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.05937613577882</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9970843894941702</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.852349869595327e-09</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02084364784624999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Occupation[T.Other]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-16.16322450459182</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6602450583036538</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.7715222055706232</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9982774744791589</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1087741860989338</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3642087668726942</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Occupation[T.Retired]</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2.206565774142088</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.239051572035596</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9848464733869332</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.008694737405984853</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7.080579825681621e-06</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.02628639275093348</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Occupation[T.Student_3rdLevel]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-40.98026858842773</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.542157772295792</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.560068298858266</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9999999776742311</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2725449787691189</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.01372817379214311</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Occupation[T.Student_School]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.784400408847663</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5741968668426568</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.474540587724975</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.05657741563128855</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.2568332151110534</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6.810947101122797e-05</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Occupation[T.Trainee]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.526011700063772</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.1157793784327614</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.175769612151032</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.02172980910448694</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8411872991577058</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.07486709831109552</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Occupation[T.Unemployed]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.793625028499047</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6087364320880635</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9117956347376447</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3530031862799273</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01167514074288905</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01774594604800369</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Education[T.Elementary]</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-7.967015178455043</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8682141345989848</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.23401336419435</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9986645140323596</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2355493694756104</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9919075679514986</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Education[T.No diploma yet]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>8.744719380368501</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1702031971862442</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.73615009414311</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9906746147902751</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8253823078992327</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9933276361749384</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Education[T.Other]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-6.921176029797144</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9313754717957218</v>
-      </c>
-      <c r="D25" t="n">
-        <v>14.17444068862535</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9993649704253559</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2238297515161018</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9919414358396353</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Education[T.Secondary]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>11.030165423283</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6331453326263639</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14.28696053471298</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9882375478163231</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3509837081333803</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9918774668345209</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>11.06495678580826</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6255062776577895</v>
-      </c>
-      <c r="D27" t="n">
-        <v>14.3114653039631</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9882004497776565</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.3621237947507991</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9918635357433305</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-1.314509657308459</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1430516302697221</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.4554339283031604</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.00281811252765189</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.2482404733297718</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.007069461121743258</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.002055541497845155</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.002475444562385425</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.004565278805165253</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9071716210462928</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.7091196994219504</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.6018566436227765</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.000478453189305075</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.001507803009206452</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9.139643467736525e-05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0002541719296621061</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.003333385093925e-100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.002320366407694187</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CarOwnershipHH</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-2.384456150255867</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-2.422672724211211</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-3.377238639432648</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.707688349494118e-05</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.264969162041187e-22</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.0137885556545e-36</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.4054277856695762</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0893658428322983</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1373622144804717</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.005469987005831549</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.06786973553952132</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.03913733405862026</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>UrbPopDensity_res</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-6.77335084082735e-05</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8.460733371825531e-06</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8.122133496557387e-05</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4848480336535075</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7899481138867255</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.04286668113315327</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>DistSubcenter_res</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.2885408102522967</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1153591176447555</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.2307708192562885</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.3539759519994333</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2543312036114723</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.06604400613853917</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>DistCenter_res</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1740049645362976</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.2606897485306129</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3044532714275326</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.6901726882235588</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.04167357620306091</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.05439444438801953</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>UrbBuildDensity_res</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1.308239800068534e-07</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.415917656756199e-07</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5.760105864749059e-08</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.2164840259265917</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.00104127675680901</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.336156840277594</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.01913231915572852</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.005885650516099438</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.01430338056302528</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.3367392675031019</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.3251881063683115</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.04072863170304436</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>10.02726612800198</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-2.918469626391328</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.3958358431677137</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4109747764173317</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.5587533953688052</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.9580958189203957</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.117206589525879</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.5963181883135442</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.1718443737950388</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5880697512651908</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3611914477464689</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.8479831656709655</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-1.754087437594859</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.7663963313073787</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5360491559126007</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4321173627525311</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3221575188346375</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.6190116343682407</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0004379667217802615</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0003832279589542998</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.0002386701131690975</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5108734886162576</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1207741172811064</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.5028870755784581</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bike</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>walk</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>transit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bike_p</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>walk_p</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>transit_p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -7933,7 +7027,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -7946,7 +7040,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -7959,7 +7053,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -7972,7 +7066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -7985,7 +7079,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -7995,6 +7089,19 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
